--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_14_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1474297.324407981</v>
+        <v>1413014.364084424</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2808840.042971395</v>
+        <v>2808840.042971396</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7383354.655059577</v>
+        <v>7383354.655059578</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>115.836919585238</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="G11" t="n">
         <v>131.5133056144847</v>
@@ -1390,7 +1390,7 @@
         <v>131.5133056144847</v>
       </c>
       <c r="I11" t="n">
-        <v>131.5133056144847</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>115.836919585238</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.01671651169366</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="C12" t="n">
-        <v>131.5133056144847</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>54.9564722627555</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>75.82020307354448</v>
       </c>
       <c r="S12" t="n">
-        <v>131.5133056144847</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>131.5133056144847</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>60.61999804091276</v>
       </c>
       <c r="R13" t="n">
-        <v>131.5133056144847</v>
+        <v>96.5678643682665</v>
       </c>
       <c r="S13" t="n">
-        <v>131.5133056144847</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>96.56786436826653</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1606,73 +1606,73 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>131.5133056144847</v>
       </c>
-      <c r="C14" t="n">
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>131.5133056144847</v>
       </c>
-      <c r="D14" t="n">
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>131.5133056144847</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="X14" t="n">
         <v>115.836919585238</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S15" t="n">
-        <v>131.5133056144847</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>131.5133056144847</v>
       </c>
       <c r="V15" t="n">
-        <v>115.836919585238</v>
+        <v>40.01671651169363</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.5133056144847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>96.56786436826653</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>131.5133056144847</v>
       </c>
       <c r="T16" t="n">
-        <v>96.56786436826653</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>131.5133056144847</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,67 +1843,67 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>143.0892660992689</v>
       </c>
-      <c r="C17" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>83.50684292693452</v>
+      </c>
+      <c r="S17" t="n">
         <v>143.0892660992689</v>
       </c>
-      <c r="D17" t="n">
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>42.52618265330152</v>
+      </c>
+      <c r="V17" t="n">
         <v>143.0892660992689</v>
-      </c>
-      <c r="E17" t="n">
-        <v>126.033025580236</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1931,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>126.033025580236</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>50.21282250669151</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="V18" t="n">
-        <v>143.0892660992689</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>143.0892660992689</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>143.0892660992689</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="U19" t="n">
-        <v>143.0892660992689</v>
+        <v>134.0359414396109</v>
       </c>
       <c r="V19" t="n">
-        <v>134.0359414396109</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>143.0892660992689</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,29 +2080,29 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>126.033025580236</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>143.0892660992689</v>
       </c>
-      <c r="C20" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>143.0892660992689</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>126.033025580236</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>143.0892660992689</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.027027386042171</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>74.70151135649544</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="T21" t="n">
         <v>143.0892660992689</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="V21" t="n">
-        <v>143.0892660992689</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>126.033025580236</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2241,20 +2241,20 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>134.0359414396109</v>
+      </c>
+      <c r="G22" t="n">
         <v>143.0892660992689</v>
       </c>
-      <c r="D22" t="n">
-        <v>134.0359414396109</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>143.0892660992689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>304.1358184187488</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>138.2829137425744</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.0651492234818</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>214.7044699816169</v>
       </c>
       <c r="U23" t="n">
         <v>250.0086995935164</v>
@@ -2380,13 +2380,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
@@ -2411,7 +2411,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>147.7959531409774</v>
+        <v>97.55724548955291</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T24" t="n">
         <v>211.1471930106489</v>
@@ -2462,10 +2462,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>80.94160925995816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.6114502074771</v>
       </c>
       <c r="H25" t="n">
-        <v>57.7010382202345</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>140.9356044756792</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>221.577830942235</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>64.8854147954001</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>154.0526656715352</v>
       </c>
       <c r="G26" t="n">
         <v>417.0651492234818</v>
       </c>
       <c r="H26" t="n">
-        <v>328.8634192398093</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>172.6552715112505</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>187.1142161021862</v>
       </c>
       <c r="T26" t="n">
-        <v>214.7044699816169</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.0086995935164</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -2642,13 +2642,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>130.3151862898538</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.7959531409774</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2696,10 +2696,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>196.2376567703774</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>223.3842861340256</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>131.601297619267</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>129.9037665488134</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6131760188819</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
         <v>350.2054973811788</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>328.8634192398093</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>172.6552715112505</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>187.1142161021862</v>
@@ -2848,16 +2848,16 @@
         <v>214.7044699816169</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0086995935164</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>130.5576897416302</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>220.0257705736713</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2885,13 +2885,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.7959531409774</v>
       </c>
       <c r="H30" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>74.70151135649544</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>173.9700088726122</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>237.165658224938</v>
+        <v>88.55725992204881</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>48.2111513830508</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>139.2310915388036</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.61999804091276</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.3633840584323</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>288.6131760188819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>131.6012976192668</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>172.2241723987439</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>417.0651492234818</v>
       </c>
       <c r="H32" t="n">
-        <v>328.8634192398093</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>172.6552715112505</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>83.50684292693452</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>214.7044699816169</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0086995935164</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>67.10154017875462</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,22 +3110,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>140.8901160854601</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.7959531409774</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I33" t="n">
         <v>74.70151135649544</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>173.9700088726122</v>
@@ -3164,10 +3164,10 @@
         <v>211.1471930106489</v>
       </c>
       <c r="U33" t="n">
-        <v>237.165658224938</v>
+        <v>148.0257757080973</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
@@ -3176,7 +3176,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>221.577830942235</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.3633840584323</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>199.8510895797164</v>
       </c>
       <c r="V34" t="n">
-        <v>198.6366426959137</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>385.1556416466058</v>
+        <v>393.7639284834526</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.0086995935164</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>127.9736177853303</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>95.39806033830533</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T36" t="n">
-        <v>166.1521959700686</v>
+        <v>211.1471930106489</v>
       </c>
       <c r="U36" t="n">
-        <v>237.165658224938</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>56.51489967170843</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>158.7533028562218</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>140.9356044756792</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>64.01066663453935</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>100.9214117609557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>319.4364582188179</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>393.7639284834526</v>
+        <v>261.9231425964759</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>83.50684292693452</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>187.1142161021862</v>
       </c>
       <c r="T38" t="n">
-        <v>214.7044699816169</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>250.0086995935164</v>
@@ -3584,19 +3584,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>111.9529080799288</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.7959531409774</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>166.1521959700686</v>
+        <v>211.1471930106489</v>
       </c>
       <c r="U39" t="n">
-        <v>237.165658224938</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>203.0732008239804</v>
       </c>
       <c r="Y40" t="n">
-        <v>76.14037200120833</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>317.0004441280924</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>382.1879679986685</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>187.1142161021862</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.7044699816169</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>16.93164615684573</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>382.1879679986685</v>
@@ -3818,28 +3818,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>135.8660196532054</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>147.7959531409774</v>
       </c>
       <c r="H42" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>74.70151135649544</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>211.1471930106489</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>237.165658224938</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>86.2027630056091</v>
       </c>
     </row>
     <row r="43">
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9054575162844</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>158.7533028562218</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>93.55571326564241</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>131.6012976192668</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>288.6131760188819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>228.009495397868</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>382.1879679986685</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>328.8634192398093</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>172.6552715112505</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>80.84815886255926</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,16 +4058,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>75.82020307354448</v>
       </c>
       <c r="S45" t="n">
-        <v>173.9700088726122</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>211.1471930106489</v>
@@ -4118,13 +4118,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>138.1976739073306</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>60.42558409560457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,16 +4149,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>56.51489967170843</v>
+        <v>167.9054575162844</v>
       </c>
       <c r="H46" t="n">
         <v>158.7533028562218</v>
       </c>
       <c r="I46" t="n">
-        <v>140.9356044756792</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>64.01066663453935</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>93.55571326564251</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>526.0532224579389</v>
+        <v>409.0462329779004</v>
       </c>
       <c r="C11" t="n">
-        <v>526.0532224579389</v>
+        <v>409.0462329779004</v>
       </c>
       <c r="D11" t="n">
-        <v>526.0532224579389</v>
+        <v>409.0462329779004</v>
       </c>
       <c r="E11" t="n">
-        <v>526.0532224579389</v>
+        <v>409.0462329779004</v>
       </c>
       <c r="F11" t="n">
-        <v>409.0462329779004</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="G11" t="n">
-        <v>276.2045101349865</v>
+        <v>143.3627872920727</v>
       </c>
       <c r="H11" t="n">
-        <v>143.3627872920727</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="I11" t="n">
         <v>10.52106444915878</v>
@@ -5050,13 +5050,13 @@
         <v>149.3934674864271</v>
       </c>
       <c r="M11" t="n">
-        <v>250.0976246606135</v>
+        <v>279.591640044767</v>
       </c>
       <c r="N11" t="n">
-        <v>358.0601266030093</v>
+        <v>387.5541419871628</v>
       </c>
       <c r="O11" t="n">
-        <v>488.2582991613492</v>
+        <v>473.2310523933578</v>
       </c>
       <c r="P11" t="n">
         <v>526.0532224579389</v>
@@ -5071,22 +5071,22 @@
         <v>526.0532224579389</v>
       </c>
       <c r="T11" t="n">
-        <v>526.0532224579389</v>
+        <v>409.0462329779004</v>
       </c>
       <c r="U11" t="n">
-        <v>526.0532224579389</v>
+        <v>409.0462329779004</v>
       </c>
       <c r="V11" t="n">
-        <v>526.0532224579389</v>
+        <v>409.0462329779004</v>
       </c>
       <c r="W11" t="n">
-        <v>526.0532224579389</v>
+        <v>409.0462329779004</v>
       </c>
       <c r="X11" t="n">
-        <v>526.0532224579389</v>
+        <v>409.0462329779004</v>
       </c>
       <c r="Y11" t="n">
-        <v>526.0532224579389</v>
+        <v>409.0462329779004</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>143.3627872920727</v>
+        <v>183.7837130614602</v>
       </c>
       <c r="C12" t="n">
-        <v>10.52106444915878</v>
+        <v>183.7837130614602</v>
       </c>
       <c r="D12" t="n">
-        <v>10.52106444915878</v>
+        <v>183.7837130614602</v>
       </c>
       <c r="E12" t="n">
-        <v>10.52106444915878</v>
+        <v>183.7837130614602</v>
       </c>
       <c r="F12" t="n">
-        <v>10.52106444915878</v>
+        <v>183.7837130614602</v>
       </c>
       <c r="G12" t="n">
-        <v>10.52106444915878</v>
+        <v>128.2721249172627</v>
       </c>
       <c r="H12" t="n">
         <v>10.52106444915878</v>
@@ -5147,25 +5147,25 @@
         <v>449.4671587472879</v>
       </c>
       <c r="S12" t="n">
+        <v>449.4671587472879</v>
+      </c>
+      <c r="T12" t="n">
         <v>316.6254359043741</v>
       </c>
-      <c r="T12" t="n">
-        <v>183.7837130614602</v>
-      </c>
       <c r="U12" t="n">
-        <v>183.7837130614602</v>
+        <v>316.6254359043741</v>
       </c>
       <c r="V12" t="n">
-        <v>183.7837130614602</v>
+        <v>316.6254359043741</v>
       </c>
       <c r="W12" t="n">
-        <v>183.7837130614602</v>
+        <v>316.6254359043741</v>
       </c>
       <c r="X12" t="n">
-        <v>183.7837130614602</v>
+        <v>316.6254359043741</v>
       </c>
       <c r="Y12" t="n">
-        <v>183.7837130614602</v>
+        <v>316.6254359043741</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.52106444915878</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="C13" t="n">
-        <v>10.52106444915878</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="D13" t="n">
-        <v>10.52106444915878</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="E13" t="n">
-        <v>10.52106444915878</v>
+        <v>143.3627872920727</v>
       </c>
       <c r="F13" t="n">
         <v>10.52106444915878</v>
@@ -5223,28 +5223,28 @@
         <v>373.7478074766699</v>
       </c>
       <c r="R13" t="n">
-        <v>240.906084633756</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="S13" t="n">
-        <v>108.0643617908422</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="T13" t="n">
-        <v>10.52106444915878</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="U13" t="n">
-        <v>10.52106444915878</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="V13" t="n">
-        <v>10.52106444915878</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="W13" t="n">
-        <v>10.52106444915878</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="X13" t="n">
-        <v>10.52106444915878</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.52106444915878</v>
+        <v>276.2045101349865</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>393.211499615025</v>
+        <v>143.3627872920727</v>
       </c>
       <c r="C14" t="n">
-        <v>260.3697767721111</v>
+        <v>143.3627872920727</v>
       </c>
       <c r="D14" t="n">
-        <v>127.5280539291972</v>
+        <v>143.3627872920727</v>
       </c>
       <c r="E14" t="n">
-        <v>127.5280539291972</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="F14" t="n">
         <v>10.52106444915878</v>
@@ -5278,13 +5278,13 @@
         <v>10.52106444915878</v>
       </c>
       <c r="J14" t="n">
-        <v>83.48560352049219</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="K14" t="n">
-        <v>92.15983399942067</v>
+        <v>70.47944059843758</v>
       </c>
       <c r="L14" t="n">
-        <v>171.183597772624</v>
+        <v>200.6776131567775</v>
       </c>
       <c r="M14" t="n">
         <v>301.3817703309638</v>
@@ -5311,19 +5311,19 @@
         <v>526.0532224579389</v>
       </c>
       <c r="U14" t="n">
-        <v>526.0532224579389</v>
+        <v>393.211499615025</v>
       </c>
       <c r="V14" t="n">
-        <v>526.0532224579389</v>
+        <v>393.211499615025</v>
       </c>
       <c r="W14" t="n">
-        <v>526.0532224579389</v>
+        <v>260.3697767721111</v>
       </c>
       <c r="X14" t="n">
-        <v>526.0532224579389</v>
+        <v>143.3627872920727</v>
       </c>
       <c r="Y14" t="n">
-        <v>526.0532224579389</v>
+        <v>143.3627872920727</v>
       </c>
     </row>
     <row r="15">
@@ -5381,25 +5381,25 @@
         <v>526.0532224579389</v>
       </c>
       <c r="R15" t="n">
-        <v>526.0532224579389</v>
+        <v>449.4671587472879</v>
       </c>
       <c r="S15" t="n">
-        <v>393.211499615025</v>
+        <v>449.4671587472879</v>
       </c>
       <c r="T15" t="n">
-        <v>393.211499615025</v>
+        <v>449.4671587472879</v>
       </c>
       <c r="U15" t="n">
-        <v>260.3697767721111</v>
+        <v>316.6254359043741</v>
       </c>
       <c r="V15" t="n">
-        <v>143.3627872920727</v>
+        <v>276.2045101349865</v>
       </c>
       <c r="W15" t="n">
         <v>143.3627872920727</v>
       </c>
       <c r="X15" t="n">
-        <v>143.3627872920727</v>
+        <v>10.52106444915878</v>
       </c>
       <c r="Y15" t="n">
         <v>10.52106444915878</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.52106444915878</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="C16" t="n">
-        <v>10.52106444915878</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="D16" t="n">
-        <v>10.52106444915878</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="E16" t="n">
-        <v>10.52106444915878</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="F16" t="n">
         <v>10.52106444915878</v>
@@ -5466,22 +5466,22 @@
         <v>240.906084633756</v>
       </c>
       <c r="T16" t="n">
-        <v>143.3627872920727</v>
+        <v>240.906084633756</v>
       </c>
       <c r="U16" t="n">
-        <v>10.52106444915878</v>
+        <v>240.906084633756</v>
       </c>
       <c r="V16" t="n">
-        <v>10.52106444915878</v>
+        <v>240.906084633756</v>
       </c>
       <c r="W16" t="n">
-        <v>10.52106444915878</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="X16" t="n">
-        <v>10.52106444915878</v>
+        <v>108.0643617908422</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.52106444915878</v>
+        <v>108.0643617908422</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>427.8224521755919</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="C17" t="n">
-        <v>283.2878399541081</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="D17" t="n">
-        <v>138.7532277326243</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="E17" t="n">
-        <v>11.44714128794152</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="F17" t="n">
-        <v>11.44714128794152</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="G17" t="n">
         <v>11.44714128794152</v>
@@ -5515,52 +5515,52 @@
         <v>11.44714128794152</v>
       </c>
       <c r="J17" t="n">
-        <v>84.41168035927494</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="K17" t="n">
-        <v>93.08591083820342</v>
+        <v>20.12137176687</v>
       </c>
       <c r="L17" t="n">
-        <v>148.8672102419274</v>
+        <v>75.90267117059392</v>
       </c>
       <c r="M17" t="n">
-        <v>290.5255836802036</v>
+        <v>217.5610446088702</v>
       </c>
       <c r="N17" t="n">
-        <v>398.4880856225993</v>
+        <v>359.2194180471464</v>
       </c>
       <c r="O17" t="n">
-        <v>484.1649960287943</v>
+        <v>444.8963284533414</v>
       </c>
       <c r="P17" t="n">
-        <v>572.3570643970758</v>
+        <v>475.9283682317257</v>
       </c>
       <c r="Q17" t="n">
         <v>572.3570643970758</v>
       </c>
       <c r="R17" t="n">
-        <v>572.3570643970758</v>
+        <v>488.0067180062328</v>
       </c>
       <c r="S17" t="n">
-        <v>572.3570643970758</v>
+        <v>343.472105784749</v>
       </c>
       <c r="T17" t="n">
-        <v>572.3570643970758</v>
+        <v>343.472105784749</v>
       </c>
       <c r="U17" t="n">
-        <v>572.3570643970758</v>
+        <v>300.5163657309091</v>
       </c>
       <c r="V17" t="n">
-        <v>572.3570643970758</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="W17" t="n">
-        <v>572.3570643970758</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="X17" t="n">
-        <v>572.3570643970758</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="Y17" t="n">
-        <v>572.3570643970758</v>
+        <v>155.9817535094253</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.44714128794152</v>
+        <v>283.2878399541081</v>
       </c>
       <c r="C18" t="n">
-        <v>11.44714128794152</v>
+        <v>283.2878399541081</v>
       </c>
       <c r="D18" t="n">
-        <v>11.44714128794152</v>
+        <v>283.2878399541081</v>
       </c>
       <c r="E18" t="n">
-        <v>11.44714128794152</v>
+        <v>138.7532277326243</v>
       </c>
       <c r="F18" t="n">
-        <v>11.44714128794152</v>
+        <v>138.7532277326243</v>
       </c>
       <c r="G18" t="n">
         <v>11.44714128794152</v>
@@ -5597,7 +5597,7 @@
         <v>11.44714128794152</v>
       </c>
       <c r="K18" t="n">
-        <v>31.40525121631044</v>
+        <v>65.32281543672815</v>
       </c>
       <c r="L18" t="n">
         <v>148.6724574284511</v>
@@ -5618,28 +5618,28 @@
         <v>572.3570643970758</v>
       </c>
       <c r="R18" t="n">
-        <v>495.7710006864248</v>
+        <v>572.3570643970758</v>
       </c>
       <c r="S18" t="n">
-        <v>495.7710006864248</v>
+        <v>572.3570643970758</v>
       </c>
       <c r="T18" t="n">
-        <v>495.7710006864248</v>
+        <v>572.3570643970758</v>
       </c>
       <c r="U18" t="n">
-        <v>445.0509779523929</v>
+        <v>427.8224521755919</v>
       </c>
       <c r="V18" t="n">
-        <v>300.5163657309091</v>
+        <v>427.8224521755919</v>
       </c>
       <c r="W18" t="n">
-        <v>155.9817535094253</v>
+        <v>427.8224521755919</v>
       </c>
       <c r="X18" t="n">
-        <v>11.44714128794152</v>
+        <v>427.8224521755919</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.44714128794152</v>
+        <v>427.8224521755919</v>
       </c>
     </row>
     <row r="19">
@@ -5700,16 +5700,16 @@
         <v>435.9062055688999</v>
       </c>
       <c r="S19" t="n">
-        <v>435.9062055688999</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="T19" t="n">
-        <v>435.9062055688999</v>
+        <v>146.8369811259323</v>
       </c>
       <c r="U19" t="n">
-        <v>291.3715933474161</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="V19" t="n">
-        <v>155.9817535094253</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="W19" t="n">
         <v>11.44714128794152</v>
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>427.8224521755919</v>
+      </c>
+      <c r="C20" t="n">
+        <v>427.8224521755919</v>
+      </c>
+      <c r="D20" t="n">
+        <v>427.8224521755919</v>
+      </c>
+      <c r="E20" t="n">
+        <v>300.5163657309091</v>
+      </c>
+      <c r="F20" t="n">
+        <v>300.5163657309091</v>
+      </c>
+      <c r="G20" t="n">
         <v>155.9817535094253</v>
       </c>
-      <c r="C20" t="n">
-        <v>11.44714128794152</v>
-      </c>
-      <c r="D20" t="n">
-        <v>11.44714128794152</v>
-      </c>
-      <c r="E20" t="n">
-        <v>11.44714128794152</v>
-      </c>
-      <c r="F20" t="n">
-        <v>11.44714128794152</v>
-      </c>
-      <c r="G20" t="n">
-        <v>11.44714128794152</v>
-      </c>
       <c r="H20" t="n">
-        <v>11.44714128794152</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="I20" t="n">
         <v>11.44714128794152</v>
       </c>
       <c r="J20" t="n">
-        <v>84.41168035927494</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="K20" t="n">
-        <v>93.08591083820342</v>
+        <v>153.1055147262178</v>
       </c>
       <c r="L20" t="n">
-        <v>234.7442842764797</v>
+        <v>208.8868141299417</v>
       </c>
       <c r="M20" t="n">
-        <v>335.4484414506661</v>
+        <v>309.5909713041281</v>
       </c>
       <c r="N20" t="n">
-        <v>443.4109433930618</v>
+        <v>417.5534732465238</v>
       </c>
       <c r="O20" t="n">
-        <v>529.0878537992569</v>
+        <v>503.2303836527188</v>
       </c>
       <c r="P20" t="n">
         <v>572.3570643970758</v>
@@ -5794,10 +5794,10 @@
         <v>572.3570643970758</v>
       </c>
       <c r="X20" t="n">
-        <v>445.0509779523929</v>
+        <v>572.3570643970758</v>
       </c>
       <c r="Y20" t="n">
-        <v>300.5163657309091</v>
+        <v>427.8224521755919</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>206.7017762434572</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="C21" t="n">
-        <v>206.7017762434572</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="D21" t="n">
-        <v>206.7017762434572</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="E21" t="n">
-        <v>206.7017762434572</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="F21" t="n">
-        <v>206.7017762434572</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="G21" t="n">
-        <v>204.6542738333136</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="H21" t="n">
-        <v>86.90321336520965</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="I21" t="n">
         <v>11.44714128794152</v>
@@ -5834,19 +5834,19 @@
         <v>11.44714128794152</v>
       </c>
       <c r="K21" t="n">
-        <v>31.40525121631044</v>
+        <v>65.32281543672815</v>
       </c>
       <c r="L21" t="n">
-        <v>114.7548932080334</v>
+        <v>148.6724574284511</v>
       </c>
       <c r="M21" t="n">
-        <v>235.6353732339073</v>
+        <v>269.552937454325</v>
       </c>
       <c r="N21" t="n">
-        <v>377.2937466721836</v>
+        <v>411.2113108926013</v>
       </c>
       <c r="O21" t="n">
-        <v>479.7753330161643</v>
+        <v>513.692897236582</v>
       </c>
       <c r="P21" t="n">
         <v>572.3570643970758</v>
@@ -5855,28 +5855,28 @@
         <v>572.3570643970758</v>
       </c>
       <c r="R21" t="n">
-        <v>495.7710006864248</v>
+        <v>572.3570643970758</v>
       </c>
       <c r="S21" t="n">
-        <v>495.7710006864248</v>
+        <v>427.8224521755919</v>
       </c>
       <c r="T21" t="n">
-        <v>351.236388464941</v>
+        <v>283.2878399541081</v>
       </c>
       <c r="U21" t="n">
-        <v>351.236388464941</v>
+        <v>138.7532277326243</v>
       </c>
       <c r="V21" t="n">
-        <v>206.7017762434572</v>
+        <v>138.7532277326243</v>
       </c>
       <c r="W21" t="n">
-        <v>206.7017762434572</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="X21" t="n">
-        <v>206.7017762434572</v>
+        <v>11.44714128794152</v>
       </c>
       <c r="Y21" t="n">
-        <v>206.7017762434572</v>
+        <v>11.44714128794152</v>
       </c>
     </row>
     <row r="22">
@@ -5889,16 +5889,16 @@
         <v>291.3715933474161</v>
       </c>
       <c r="C22" t="n">
-        <v>146.8369811259323</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="D22" t="n">
-        <v>11.44714128794152</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="E22" t="n">
-        <v>11.44714128794152</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="F22" t="n">
-        <v>11.44714128794152</v>
+        <v>155.9817535094253</v>
       </c>
       <c r="G22" t="n">
         <v>11.44714128794152</v>
@@ -5949,10 +5949,10 @@
         <v>435.9062055688999</v>
       </c>
       <c r="W22" t="n">
-        <v>435.9062055688999</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="X22" t="n">
-        <v>435.9062055688999</v>
+        <v>291.3715933474161</v>
       </c>
       <c r="Y22" t="n">
         <v>291.3715933474161</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42.02217872783498</v>
+        <v>944.1638177261011</v>
       </c>
       <c r="C23" t="n">
-        <v>42.02217872783498</v>
+        <v>944.1638177261011</v>
       </c>
       <c r="D23" t="n">
-        <v>42.02217872783498</v>
+        <v>602.9798180874877</v>
       </c>
       <c r="E23" t="n">
-        <v>42.02217872783498</v>
+        <v>463.3001072364025</v>
       </c>
       <c r="F23" t="n">
-        <v>42.02217872783498</v>
+        <v>463.3001072364025</v>
       </c>
       <c r="G23" t="n">
         <v>42.02217872783498</v>
@@ -5989,10 +5989,10 @@
         <v>42.02217872783498</v>
       </c>
       <c r="J23" t="n">
-        <v>114.9867177991684</v>
+        <v>114.9867177991683</v>
       </c>
       <c r="K23" t="n">
-        <v>331.6067133507505</v>
+        <v>331.6067133507504</v>
       </c>
       <c r="L23" t="n">
         <v>655.3260351128793</v>
@@ -6013,28 +6013,28 @@
         <v>2101.108936391749</v>
       </c>
       <c r="R23" t="n">
-        <v>2016.758590000906</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="S23" t="n">
-        <v>2016.758590000906</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="T23" t="n">
-        <v>2016.758590000906</v>
+        <v>1884.235734390116</v>
       </c>
       <c r="U23" t="n">
-        <v>1764.224550007455</v>
+        <v>1631.701694396665</v>
       </c>
       <c r="V23" t="n">
-        <v>1440.103556462857</v>
+        <v>1307.580700852067</v>
       </c>
       <c r="W23" t="n">
-        <v>1098.79399704289</v>
+        <v>1307.580700852067</v>
       </c>
       <c r="X23" t="n">
-        <v>735.3771139169246</v>
+        <v>944.1638177261011</v>
       </c>
       <c r="Y23" t="n">
-        <v>349.2300761205105</v>
+        <v>944.1638177261011</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>875.4943309517239</v>
+        <v>663.9680453678824</v>
       </c>
       <c r="C24" t="n">
-        <v>686.0820566846876</v>
+        <v>474.5557711008461</v>
       </c>
       <c r="D24" t="n">
-        <v>525.3019404457193</v>
+        <v>474.5557711008461</v>
       </c>
       <c r="E24" t="n">
-        <v>351.7387365671337</v>
+        <v>300.9925672222605</v>
       </c>
       <c r="F24" t="n">
-        <v>191.3110202843778</v>
+        <v>140.5648509395046</v>
       </c>
       <c r="G24" t="n">
         <v>42.02217872783498</v>
@@ -6077,43 +6077,43 @@
         <v>589.671228935078</v>
       </c>
       <c r="M24" t="n">
-        <v>1009.310821457852</v>
+        <v>920.7434948910827</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.476914885005</v>
+        <v>1369.909588318235</v>
       </c>
       <c r="O24" t="n">
-        <v>1813.629056291393</v>
+        <v>1725.061729724624</v>
       </c>
       <c r="P24" t="n">
-        <v>2076.593458789779</v>
+        <v>1988.02613222301</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.108936391749</v>
       </c>
       <c r="R24" t="n">
-        <v>2101.108936391749</v>
+        <v>2024.522872681098</v>
       </c>
       <c r="S24" t="n">
-        <v>2101.108936391749</v>
+        <v>1848.795590991591</v>
       </c>
       <c r="T24" t="n">
-        <v>1887.8289434517</v>
+        <v>1635.515598051541</v>
       </c>
       <c r="U24" t="n">
-        <v>1648.267672517419</v>
+        <v>1395.954327117261</v>
       </c>
       <c r="V24" t="n">
-        <v>1405.187954421053</v>
+        <v>1152.874609020895</v>
       </c>
       <c r="W24" t="n">
-        <v>1135.789385151344</v>
+        <v>883.476039751186</v>
       </c>
       <c r="X24" t="n">
-        <v>1135.789385151344</v>
+        <v>663.9680453678824</v>
       </c>
       <c r="Y24" t="n">
-        <v>1054.030183878659</v>
+        <v>663.9680453678824</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>242.6652521580509</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="C25" t="n">
-        <v>242.6652521580509</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="D25" t="n">
-        <v>242.6652521580509</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="E25" t="n">
-        <v>242.6652521580509</v>
+        <v>323.3740296631115</v>
       </c>
       <c r="F25" t="n">
-        <v>242.6652521580509</v>
+        <v>183.0438456040745</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6652521580509</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="H25" t="n">
-        <v>184.381375167915</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="I25" t="n">
         <v>42.02217872783498</v>
@@ -6174,25 +6174,25 @@
         <v>466.4812430087933</v>
       </c>
       <c r="S25" t="n">
-        <v>242.6652521580509</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="T25" t="n">
-        <v>242.6652521580509</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="U25" t="n">
-        <v>242.6652521580509</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="V25" t="n">
-        <v>242.6652521580509</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="W25" t="n">
-        <v>242.6652521580509</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="X25" t="n">
-        <v>242.6652521580509</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="Y25" t="n">
-        <v>242.6652521580509</v>
+        <v>466.4812430087933</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1442.697435707588</v>
+        <v>994.1400847446564</v>
       </c>
       <c r="C26" t="n">
-        <v>1442.697435707588</v>
+        <v>994.1400847446564</v>
       </c>
       <c r="D26" t="n">
-        <v>1442.697435707588</v>
+        <v>994.1400847446564</v>
       </c>
       <c r="E26" t="n">
-        <v>1377.156612681931</v>
+        <v>618.9088604399734</v>
       </c>
       <c r="F26" t="n">
-        <v>969.8846433485841</v>
+        <v>463.3001072364025</v>
       </c>
       <c r="G26" t="n">
-        <v>548.6067148400166</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="H26" t="n">
-        <v>216.4214428806133</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="I26" t="n">
         <v>42.02217872783498</v>
@@ -6238,7 +6238,7 @@
         <v>1044.402114293388</v>
       </c>
       <c r="N26" t="n">
-        <v>1432.931415184559</v>
+        <v>1432.93141518456</v>
       </c>
       <c r="O26" t="n">
         <v>1762.899257874431</v>
@@ -6256,22 +6256,22 @@
         <v>1912.104677702672</v>
       </c>
       <c r="T26" t="n">
-        <v>1695.231475701039</v>
+        <v>1912.104677702672</v>
       </c>
       <c r="U26" t="n">
-        <v>1442.697435707588</v>
+        <v>1659.570637709221</v>
       </c>
       <c r="V26" t="n">
-        <v>1442.697435707588</v>
+        <v>1335.449644164623</v>
       </c>
       <c r="W26" t="n">
-        <v>1442.697435707588</v>
+        <v>994.1400847446564</v>
       </c>
       <c r="X26" t="n">
-        <v>1442.697435707588</v>
+        <v>994.1400847446564</v>
       </c>
       <c r="Y26" t="n">
-        <v>1442.697435707588</v>
+        <v>994.1400847446564</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>726.205489395181</v>
+        <v>833.5626283760209</v>
       </c>
       <c r="C27" t="n">
-        <v>536.7932151281447</v>
+        <v>644.1503541089846</v>
       </c>
       <c r="D27" t="n">
-        <v>376.0130988891764</v>
+        <v>483.3702378700164</v>
       </c>
       <c r="E27" t="n">
-        <v>202.4498950105909</v>
+        <v>351.7387365671337</v>
       </c>
       <c r="F27" t="n">
-        <v>42.02217872783498</v>
+        <v>191.3110202843778</v>
       </c>
       <c r="G27" t="n">
         <v>42.02217872783498</v>
@@ -6317,13 +6317,13 @@
         <v>1009.310821457852</v>
       </c>
       <c r="N27" t="n">
-        <v>1369.909588318235</v>
+        <v>1458.476914885005</v>
       </c>
       <c r="O27" t="n">
-        <v>1725.061729724624</v>
+        <v>1813.629056291393</v>
       </c>
       <c r="P27" t="n">
-        <v>1988.02613222301</v>
+        <v>2076.593458789779</v>
       </c>
       <c r="Q27" t="n">
         <v>2101.108936391749</v>
@@ -6344,13 +6344,13 @@
         <v>1328.601890710402</v>
       </c>
       <c r="W27" t="n">
-        <v>1328.601890710402</v>
+        <v>1059.203321440693</v>
       </c>
       <c r="X27" t="n">
-        <v>1130.382035386788</v>
+        <v>1059.203321440693</v>
       </c>
       <c r="Y27" t="n">
-        <v>904.741342322116</v>
+        <v>833.5626283760209</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1809.580475766616</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="C28" t="n">
-        <v>1809.580475766616</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="D28" t="n">
-        <v>1809.580475766616</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="E28" t="n">
-        <v>1676.649872110791</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="F28" t="n">
-        <v>1676.649872110791</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="G28" t="n">
-        <v>1676.649872110791</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="H28" t="n">
-        <v>1676.649872110791</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="I28" t="n">
-        <v>1676.649872110791</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="J28" t="n">
-        <v>1676.649872110791</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="K28" t="n">
-        <v>1701.767600371033</v>
+        <v>67.13990698807751</v>
       </c>
       <c r="L28" t="n">
-        <v>1786.996890721358</v>
+        <v>152.3691973384021</v>
       </c>
       <c r="M28" t="n">
-        <v>1885.45511701683</v>
+        <v>250.8274236338743</v>
       </c>
       <c r="N28" t="n">
-        <v>1989.588363015515</v>
+        <v>354.9606696325595</v>
       </c>
       <c r="O28" t="n">
-        <v>2063.774623795301</v>
+        <v>429.1469304123455</v>
       </c>
       <c r="P28" t="n">
-        <v>2101.108936391749</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="Q28" t="n">
-        <v>2101.108936391749</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="R28" t="n">
-        <v>2101.108936391749</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="S28" t="n">
-        <v>2101.108936391749</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="T28" t="n">
-        <v>2101.108936391749</v>
+        <v>335.2653172019111</v>
       </c>
       <c r="U28" t="n">
-        <v>1809.580475766616</v>
+        <v>335.2653172019111</v>
       </c>
       <c r="V28" t="n">
-        <v>1809.580475766616</v>
+        <v>335.2653172019111</v>
       </c>
       <c r="W28" t="n">
-        <v>1809.580475766616</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="X28" t="n">
-        <v>1809.580475766616</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="Y28" t="n">
-        <v>1809.580475766616</v>
+        <v>42.02217872783498</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>902.349641487672</v>
+        <v>770.9963296801734</v>
       </c>
       <c r="C29" t="n">
-        <v>548.6067148400166</v>
+        <v>417.253403032518</v>
       </c>
       <c r="D29" t="n">
-        <v>548.6067148400166</v>
+        <v>417.253403032518</v>
       </c>
       <c r="E29" t="n">
-        <v>548.6067148400166</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="F29" t="n">
-        <v>548.6067148400166</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="G29" t="n">
-        <v>548.6067148400166</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="H29" t="n">
-        <v>216.4214428806133</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="I29" t="n">
         <v>42.02217872783498</v>
       </c>
       <c r="J29" t="n">
-        <v>114.9867177991684</v>
+        <v>114.9867177991682</v>
       </c>
       <c r="K29" t="n">
-        <v>331.6067133507505</v>
+        <v>331.6067133507504</v>
       </c>
       <c r="L29" t="n">
-        <v>655.3260351128794</v>
+        <v>655.3260351128793</v>
       </c>
       <c r="M29" t="n">
         <v>1044.402114293388</v>
       </c>
       <c r="N29" t="n">
-        <v>1432.93141518456</v>
+        <v>1432.931415184559</v>
       </c>
       <c r="O29" t="n">
         <v>1762.899257874431</v>
@@ -6487,28 +6487,28 @@
         <v>2101.108936391749</v>
       </c>
       <c r="R29" t="n">
-        <v>2016.758590000906</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="S29" t="n">
-        <v>1827.754331311829</v>
+        <v>1912.104677702672</v>
       </c>
       <c r="T29" t="n">
-        <v>1610.881129310196</v>
+        <v>1695.231475701039</v>
       </c>
       <c r="U29" t="n">
-        <v>1358.347089316745</v>
+        <v>1695.231475701039</v>
       </c>
       <c r="V29" t="n">
-        <v>1034.226095772147</v>
+        <v>1371.110482156441</v>
       </c>
       <c r="W29" t="n">
-        <v>902.349641487672</v>
+        <v>1371.110482156441</v>
       </c>
       <c r="X29" t="n">
-        <v>902.349641487672</v>
+        <v>1148.862229051722</v>
       </c>
       <c r="Y29" t="n">
-        <v>902.349641487672</v>
+        <v>1148.862229051722</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>919.4126219405531</v>
+        <v>875.4943309517239</v>
       </c>
       <c r="C30" t="n">
-        <v>730.0003476735168</v>
+        <v>686.0820566846876</v>
       </c>
       <c r="D30" t="n">
-        <v>569.2202314345485</v>
+        <v>525.3019404457193</v>
       </c>
       <c r="E30" t="n">
-        <v>395.6570275559629</v>
+        <v>351.7387365671337</v>
       </c>
       <c r="F30" t="n">
-        <v>235.2293112732071</v>
+        <v>191.3110202843778</v>
       </c>
       <c r="G30" t="n">
-        <v>235.2293112732071</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="H30" t="n">
-        <v>117.4782508051031</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="I30" t="n">
         <v>42.02217872783498</v>
@@ -6551,13 +6551,13 @@
         <v>552.8911678153114</v>
       </c>
       <c r="M30" t="n">
-        <v>920.7434948910827</v>
+        <v>972.5307603380852</v>
       </c>
       <c r="N30" t="n">
-        <v>1369.909588318235</v>
+        <v>1421.696853765238</v>
       </c>
       <c r="O30" t="n">
-        <v>1725.061729724624</v>
+        <v>1776.848995171626</v>
       </c>
       <c r="P30" t="n">
         <v>1988.02613222301</v>
@@ -6566,28 +6566,28 @@
         <v>2101.108936391749</v>
       </c>
       <c r="R30" t="n">
-        <v>2024.522872681098</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="S30" t="n">
-        <v>1848.795590991591</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="T30" t="n">
-        <v>1848.795590991591</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="U30" t="n">
-        <v>1609.23432005731</v>
+        <v>2011.65715869271</v>
       </c>
       <c r="V30" t="n">
-        <v>1366.154601960944</v>
+        <v>1768.577440596344</v>
       </c>
       <c r="W30" t="n">
-        <v>1366.154601960944</v>
+        <v>1499.178871326635</v>
       </c>
       <c r="X30" t="n">
-        <v>1146.64660757764</v>
+        <v>1279.670876943331</v>
       </c>
       <c r="Y30" t="n">
-        <v>1097.948474867488</v>
+        <v>1054.030183878659</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>182.6596449286467</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="C31" t="n">
-        <v>182.6596449286467</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="D31" t="n">
-        <v>182.6596449286467</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="E31" t="n">
         <v>42.02217872783498</v>
@@ -6642,31 +6642,31 @@
         <v>466.4812430087933</v>
       </c>
       <c r="Q31" t="n">
-        <v>405.2489217553461</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="R31" t="n">
-        <v>405.2489217553461</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="S31" t="n">
-        <v>405.2489217553461</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="T31" t="n">
-        <v>182.6596449286467</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="U31" t="n">
-        <v>182.6596449286467</v>
+        <v>174.9527823836601</v>
       </c>
       <c r="V31" t="n">
-        <v>182.6596449286467</v>
+        <v>174.9527823836601</v>
       </c>
       <c r="W31" t="n">
-        <v>182.6596449286467</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="X31" t="n">
-        <v>182.6596449286467</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="Y31" t="n">
-        <v>182.6596449286467</v>
+        <v>42.02217872783498</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1143.848453852366</v>
+        <v>1012.930595693864</v>
       </c>
       <c r="C32" t="n">
-        <v>1143.848453852366</v>
+        <v>1012.930595693864</v>
       </c>
       <c r="D32" t="n">
-        <v>1143.848453852366</v>
+        <v>1012.930595693864</v>
       </c>
       <c r="E32" t="n">
-        <v>1143.848453852366</v>
+        <v>637.6993713891808</v>
       </c>
       <c r="F32" t="n">
-        <v>969.8846433485841</v>
+        <v>637.6993713891808</v>
       </c>
       <c r="G32" t="n">
-        <v>548.6067148400166</v>
+        <v>216.4214428806133</v>
       </c>
       <c r="H32" t="n">
         <v>216.4214428806133</v>
@@ -6700,19 +6700,19 @@
         <v>42.02217872783498</v>
       </c>
       <c r="J32" t="n">
-        <v>114.9867177991682</v>
+        <v>114.9867177991684</v>
       </c>
       <c r="K32" t="n">
-        <v>331.6067133507504</v>
+        <v>331.6067133507505</v>
       </c>
       <c r="L32" t="n">
-        <v>655.3260351128793</v>
+        <v>655.3260351128794</v>
       </c>
       <c r="M32" t="n">
         <v>1044.402114293388</v>
       </c>
       <c r="N32" t="n">
-        <v>1432.931415184559</v>
+        <v>1432.93141518456</v>
       </c>
       <c r="O32" t="n">
         <v>1762.899257874431</v>
@@ -6724,28 +6724,28 @@
         <v>2101.108936391749</v>
       </c>
       <c r="R32" t="n">
-        <v>2101.108936391749</v>
+        <v>2016.758590000906</v>
       </c>
       <c r="S32" t="n">
-        <v>2101.108936391749</v>
+        <v>2016.758590000906</v>
       </c>
       <c r="T32" t="n">
-        <v>2101.108936391749</v>
+        <v>1799.885387999273</v>
       </c>
       <c r="U32" t="n">
-        <v>1848.574896398298</v>
+        <v>1799.885387999273</v>
       </c>
       <c r="V32" t="n">
-        <v>1848.574896398298</v>
+        <v>1799.885387999273</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.265336978332</v>
+        <v>1458.575828579306</v>
       </c>
       <c r="X32" t="n">
-        <v>1143.848453852366</v>
+        <v>1390.796495065413</v>
       </c>
       <c r="Y32" t="n">
-        <v>1143.848453852366</v>
+        <v>1390.796495065413</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>259.7914993762749</v>
+        <v>895.1382596185103</v>
       </c>
       <c r="C33" t="n">
-        <v>117.4782508051031</v>
+        <v>705.725985351474</v>
       </c>
       <c r="D33" t="n">
-        <v>117.4782508051031</v>
+        <v>544.9458691125058</v>
       </c>
       <c r="E33" t="n">
-        <v>117.4782508051031</v>
+        <v>544.9458691125058</v>
       </c>
       <c r="F33" t="n">
-        <v>117.4782508051031</v>
+        <v>384.5181528297499</v>
       </c>
       <c r="G33" t="n">
-        <v>117.4782508051031</v>
+        <v>235.2293112732071</v>
       </c>
       <c r="H33" t="n">
         <v>117.4782508051031</v>
@@ -6788,43 +6788,43 @@
         <v>589.671228935078</v>
       </c>
       <c r="M33" t="n">
-        <v>920.7434948910827</v>
+        <v>1009.310821457852</v>
       </c>
       <c r="N33" t="n">
-        <v>1369.909588318235</v>
+        <v>1458.476914885005</v>
       </c>
       <c r="O33" t="n">
-        <v>1725.061729724624</v>
+        <v>1813.629056291393</v>
       </c>
       <c r="P33" t="n">
-        <v>1988.02613222301</v>
+        <v>2076.593458789779</v>
       </c>
       <c r="Q33" t="n">
         <v>2101.108936391749</v>
       </c>
       <c r="R33" t="n">
-        <v>2024.522872681098</v>
+        <v>2101.108936391749</v>
       </c>
       <c r="S33" t="n">
-        <v>1848.795590991591</v>
+        <v>1925.381654702242</v>
       </c>
       <c r="T33" t="n">
-        <v>1635.515598051541</v>
+        <v>1712.101661762192</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.954327117261</v>
+        <v>1562.580676198458</v>
       </c>
       <c r="V33" t="n">
-        <v>1152.874609020895</v>
+        <v>1562.580676198458</v>
       </c>
       <c r="W33" t="n">
-        <v>883.476039751186</v>
+        <v>1293.182106928749</v>
       </c>
       <c r="X33" t="n">
-        <v>663.9680453678824</v>
+        <v>1073.674112545445</v>
       </c>
       <c r="Y33" t="n">
-        <v>438.32735230321</v>
+        <v>1073.674112545445</v>
       </c>
     </row>
     <row r="34">
@@ -6885,13 +6885,13 @@
         <v>466.4812430087933</v>
       </c>
       <c r="S34" t="n">
-        <v>242.6652521580509</v>
+        <v>466.4812430087933</v>
       </c>
       <c r="T34" t="n">
-        <v>242.6652521580509</v>
+        <v>243.891966182094</v>
       </c>
       <c r="U34" t="n">
-        <v>242.6652521580509</v>
+        <v>42.02217872783498</v>
       </c>
       <c r="V34" t="n">
         <v>42.02217872783498</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1490.705367542967</v>
+        <v>429.2424561811536</v>
       </c>
       <c r="C35" t="n">
-        <v>1136.962440895312</v>
+        <v>429.2424561811536</v>
       </c>
       <c r="D35" t="n">
-        <v>795.7784412566984</v>
+        <v>429.2424561811536</v>
       </c>
       <c r="E35" t="n">
-        <v>420.5472169520154</v>
+        <v>429.2424561811536</v>
       </c>
       <c r="F35" t="n">
-        <v>420.5472169520154</v>
+        <v>429.2424561811536</v>
       </c>
       <c r="G35" t="n">
         <v>31.50111427867621</v>
@@ -6940,49 +6940,49 @@
         <v>104.4656533500096</v>
       </c>
       <c r="K35" t="n">
-        <v>113.1398838289381</v>
+        <v>321.0856489015918</v>
       </c>
       <c r="L35" t="n">
-        <v>436.8592055910669</v>
+        <v>644.8049706637206</v>
       </c>
       <c r="M35" t="n">
-        <v>825.9352847715752</v>
+        <v>798.9156907842249</v>
       </c>
       <c r="N35" t="n">
-        <v>1214.464585662747</v>
+        <v>906.8781927266207</v>
       </c>
       <c r="O35" t="n">
-        <v>1544.023674155426</v>
+        <v>1236.846035416492</v>
       </c>
       <c r="P35" t="n">
-        <v>1575.05571393381</v>
+        <v>1474.318382461046</v>
       </c>
       <c r="Q35" t="n">
         <v>1575.05571393381</v>
       </c>
       <c r="R35" t="n">
-        <v>1490.705367542967</v>
+        <v>1575.05571393381</v>
       </c>
       <c r="S35" t="n">
-        <v>1490.705367542967</v>
+        <v>1575.05571393381</v>
       </c>
       <c r="T35" t="n">
-        <v>1490.705367542967</v>
+        <v>1575.05571393381</v>
       </c>
       <c r="U35" t="n">
-        <v>1490.705367542967</v>
+        <v>1322.521673940359</v>
       </c>
       <c r="V35" t="n">
-        <v>1490.705367542967</v>
+        <v>1193.255393349117</v>
       </c>
       <c r="W35" t="n">
-        <v>1490.705367542967</v>
+        <v>1193.255393349117</v>
       </c>
       <c r="X35" t="n">
-        <v>1490.705367542967</v>
+        <v>1193.255393349117</v>
       </c>
       <c r="Y35" t="n">
-        <v>1490.705367542967</v>
+        <v>807.1083555527024</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>31.50111427867621</v>
+        <v>462.2061115056293</v>
       </c>
       <c r="C36" t="n">
-        <v>31.50111427867621</v>
+        <v>462.2061115056293</v>
       </c>
       <c r="D36" t="n">
-        <v>31.50111427867621</v>
+        <v>301.4259952666611</v>
       </c>
       <c r="E36" t="n">
-        <v>31.50111427867621</v>
+        <v>127.8627913880755</v>
       </c>
       <c r="F36" t="n">
-        <v>31.50111427867621</v>
+        <v>127.8627913880755</v>
       </c>
       <c r="G36" t="n">
         <v>31.50111427867621</v>
@@ -7016,13 +7016,13 @@
         <v>31.50111427867621</v>
       </c>
       <c r="J36" t="n">
-        <v>68.28117539844287</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8990241751212</v>
+        <v>221.1189630553546</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1501644859193</v>
+        <v>542.3701033661526</v>
       </c>
       <c r="M36" t="n">
         <v>702.1979924220203</v>
@@ -7040,28 +7040,28 @@
         <v>1575.05571393381</v>
       </c>
       <c r="R36" t="n">
-        <v>1575.05571393381</v>
+        <v>1498.469650223159</v>
       </c>
       <c r="S36" t="n">
-        <v>1575.05571393381</v>
+        <v>1322.742368533652</v>
       </c>
       <c r="T36" t="n">
-        <v>1407.225212953943</v>
+        <v>1109.462375593603</v>
       </c>
       <c r="U36" t="n">
-        <v>1167.663942019662</v>
+        <v>1109.462375593603</v>
       </c>
       <c r="V36" t="n">
-        <v>924.584223923296</v>
+        <v>866.3826574972368</v>
       </c>
       <c r="W36" t="n">
-        <v>655.1856546535873</v>
+        <v>866.3826574972368</v>
       </c>
       <c r="X36" t="n">
-        <v>435.6776602702836</v>
+        <v>866.3826574972368</v>
       </c>
       <c r="Y36" t="n">
-        <v>210.0369672056113</v>
+        <v>640.7419644325644</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>455.9601785596346</v>
+        <v>174.608327624358</v>
       </c>
       <c r="C37" t="n">
-        <v>455.9601785596346</v>
+        <v>174.608327624358</v>
       </c>
       <c r="D37" t="n">
-        <v>455.9601785596346</v>
+        <v>174.608327624358</v>
       </c>
       <c r="E37" t="n">
-        <v>455.9601785596346</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="F37" t="n">
-        <v>455.9601785596346</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="G37" t="n">
-        <v>398.8744213154847</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="H37" t="n">
-        <v>238.5175497435435</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="I37" t="n">
-        <v>96.15835330346343</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="J37" t="n">
         <v>31.50111427867621</v>
@@ -7128,19 +7128,19 @@
         <v>455.9601785596346</v>
       </c>
       <c r="U37" t="n">
-        <v>455.9601785596346</v>
+        <v>354.0193585990733</v>
       </c>
       <c r="V37" t="n">
-        <v>455.9601785596346</v>
+        <v>354.0193585990733</v>
       </c>
       <c r="W37" t="n">
-        <v>455.9601785596346</v>
+        <v>354.0193585990733</v>
       </c>
       <c r="X37" t="n">
-        <v>455.9601785596346</v>
+        <v>354.0193585990733</v>
       </c>
       <c r="Y37" t="n">
-        <v>455.9601785596346</v>
+        <v>354.0193585990733</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1105.648471938726</v>
+        <v>671.3011694888904</v>
       </c>
       <c r="C38" t="n">
-        <v>751.9055452910707</v>
+        <v>671.3011694888904</v>
       </c>
       <c r="D38" t="n">
-        <v>429.2424561811536</v>
+        <v>671.3011694888904</v>
       </c>
       <c r="E38" t="n">
-        <v>429.2424561811536</v>
+        <v>296.0699451842074</v>
       </c>
       <c r="F38" t="n">
-        <v>429.2424561811536</v>
+        <v>296.0699451842074</v>
       </c>
       <c r="G38" t="n">
         <v>31.50111427867621</v>
@@ -7186,10 +7186,10 @@
         <v>825.9352847715752</v>
       </c>
       <c r="N38" t="n">
-        <v>1214.464585662747</v>
+        <v>933.897786713971</v>
       </c>
       <c r="O38" t="n">
-        <v>1300.141496068942</v>
+        <v>1263.865629403842</v>
       </c>
       <c r="P38" t="n">
         <v>1474.318382461046</v>
@@ -7198,28 +7198,28 @@
         <v>1575.05571393381</v>
       </c>
       <c r="R38" t="n">
-        <v>1575.05571393381</v>
+        <v>1490.705367542967</v>
       </c>
       <c r="S38" t="n">
-        <v>1575.05571393381</v>
+        <v>1301.70110885389</v>
       </c>
       <c r="T38" t="n">
-        <v>1358.182511932177</v>
+        <v>1301.70110885389</v>
       </c>
       <c r="U38" t="n">
-        <v>1105.648471938726</v>
+        <v>1049.167068860439</v>
       </c>
       <c r="V38" t="n">
-        <v>1105.648471938726</v>
+        <v>1049.167068860439</v>
       </c>
       <c r="W38" t="n">
-        <v>1105.648471938726</v>
+        <v>1049.167068860439</v>
       </c>
       <c r="X38" t="n">
-        <v>1105.648471938726</v>
+        <v>1049.167068860439</v>
       </c>
       <c r="Y38" t="n">
-        <v>1105.648471938726</v>
+        <v>1049.167068860439</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>31.50111427867621</v>
+        <v>644.0660918765052</v>
       </c>
       <c r="C39" t="n">
-        <v>31.50111427867621</v>
+        <v>454.6538176094689</v>
       </c>
       <c r="D39" t="n">
-        <v>31.50111427867621</v>
+        <v>293.8737013705006</v>
       </c>
       <c r="E39" t="n">
-        <v>31.50111427867621</v>
+        <v>293.8737013705006</v>
       </c>
       <c r="F39" t="n">
-        <v>31.50111427867621</v>
+        <v>180.789955835219</v>
       </c>
       <c r="G39" t="n">
         <v>31.50111427867621</v>
@@ -7262,43 +7262,43 @@
         <v>579.1501644859193</v>
       </c>
       <c r="M39" t="n">
-        <v>815.2807965907595</v>
+        <v>702.1979924220203</v>
       </c>
       <c r="N39" t="n">
-        <v>956.9391700290357</v>
+        <v>843.8563658602966</v>
       </c>
       <c r="O39" t="n">
-        <v>1312.091311435424</v>
+        <v>1199.008507266685</v>
       </c>
       <c r="P39" t="n">
-        <v>1575.05571393381</v>
+        <v>1461.972909765071</v>
       </c>
       <c r="Q39" t="n">
         <v>1575.05571393381</v>
       </c>
       <c r="R39" t="n">
-        <v>1575.05571393381</v>
+        <v>1498.469650223159</v>
       </c>
       <c r="S39" t="n">
-        <v>1575.05571393381</v>
+        <v>1498.469650223159</v>
       </c>
       <c r="T39" t="n">
-        <v>1407.225212953943</v>
+        <v>1285.18965728311</v>
       </c>
       <c r="U39" t="n">
-        <v>1167.663942019662</v>
+        <v>1285.18965728311</v>
       </c>
       <c r="V39" t="n">
-        <v>924.584223923296</v>
+        <v>1042.109939186744</v>
       </c>
       <c r="W39" t="n">
-        <v>655.1856546535873</v>
+        <v>1042.109939186744</v>
       </c>
       <c r="X39" t="n">
-        <v>435.6776602702836</v>
+        <v>822.6019448034403</v>
       </c>
       <c r="Y39" t="n">
-        <v>210.0369672056113</v>
+        <v>822.6019448034403</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>199.6396809170321</v>
+        <v>31.50111427867621</v>
       </c>
       <c r="C40" t="n">
         <v>31.50111427867621</v>
@@ -7374,10 +7374,10 @@
         <v>455.9601785596346</v>
       </c>
       <c r="X40" t="n">
-        <v>455.9601785596346</v>
+        <v>250.8357332828867</v>
       </c>
       <c r="Y40" t="n">
-        <v>379.0507118917474</v>
+        <v>31.50111427867621</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>384.3179640875489</v>
+        <v>416.623489963801</v>
       </c>
       <c r="C41" t="n">
-        <v>30.57503743989348</v>
+        <v>416.623489963801</v>
       </c>
       <c r="D41" t="n">
-        <v>30.57503743989348</v>
+        <v>416.623489963801</v>
       </c>
       <c r="E41" t="n">
-        <v>30.57503743989348</v>
+        <v>416.623489963801</v>
       </c>
       <c r="F41" t="n">
         <v>30.57503743989348</v>
@@ -7411,25 +7411,25 @@
         <v>30.57503743989348</v>
       </c>
       <c r="J41" t="n">
-        <v>30.57503743989348</v>
+        <v>103.5395765112269</v>
       </c>
       <c r="K41" t="n">
-        <v>247.1950329914756</v>
+        <v>125.1511161444327</v>
       </c>
       <c r="L41" t="n">
-        <v>570.9143547536044</v>
+        <v>448.8704379065616</v>
       </c>
       <c r="M41" t="n">
-        <v>752.6118488450885</v>
+        <v>827.2365262252433</v>
       </c>
       <c r="N41" t="n">
-        <v>860.5743507874843</v>
+        <v>1205.602614543925</v>
       </c>
       <c r="O41" t="n">
-        <v>1190.542193477356</v>
+        <v>1291.27952495012</v>
       </c>
       <c r="P41" t="n">
-        <v>1428.014540521909</v>
+        <v>1528.751871994674</v>
       </c>
       <c r="Q41" t="n">
         <v>1528.751871994674</v>
@@ -7438,25 +7438,25 @@
         <v>1528.751871994674</v>
       </c>
       <c r="S41" t="n">
-        <v>1528.751871994674</v>
+        <v>1339.747613305597</v>
       </c>
       <c r="T41" t="n">
-        <v>1528.751871994674</v>
+        <v>1122.874411303964</v>
       </c>
       <c r="U41" t="n">
-        <v>1528.751871994674</v>
+        <v>1122.874411303964</v>
       </c>
       <c r="V41" t="n">
-        <v>1528.751871994674</v>
+        <v>1122.874411303964</v>
       </c>
       <c r="W41" t="n">
-        <v>1511.649199108971</v>
+        <v>1122.874411303964</v>
       </c>
       <c r="X41" t="n">
-        <v>1148.232315983005</v>
+        <v>1122.874411303964</v>
       </c>
       <c r="Y41" t="n">
-        <v>762.1838634590977</v>
+        <v>736.825958780056</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1033.712609660293</v>
+        <v>514.2071991139901</v>
       </c>
       <c r="C42" t="n">
-        <v>844.3003353932563</v>
+        <v>514.2071991139901</v>
       </c>
       <c r="D42" t="n">
-        <v>707.0619317031499</v>
+        <v>353.4270828750218</v>
       </c>
       <c r="E42" t="n">
-        <v>533.4987278245643</v>
+        <v>179.8638789964363</v>
       </c>
       <c r="F42" t="n">
-        <v>373.0710115418084</v>
+        <v>179.8638789964363</v>
       </c>
       <c r="G42" t="n">
-        <v>223.7821699852656</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="H42" t="n">
-        <v>106.0311095171616</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="I42" t="n">
         <v>30.57503743989348</v>
       </c>
       <c r="J42" t="n">
-        <v>67.35509855966015</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="K42" t="n">
-        <v>256.9729473363385</v>
+        <v>220.1928862165718</v>
       </c>
       <c r="L42" t="n">
-        <v>578.2240876471366</v>
+        <v>541.4440265273699</v>
       </c>
       <c r="M42" t="n">
-        <v>784.939794833625</v>
+        <v>662.3245065532439</v>
       </c>
       <c r="N42" t="n">
-        <v>1163.305883152307</v>
+        <v>1040.690594871926</v>
       </c>
       <c r="O42" t="n">
-        <v>1265.787469496287</v>
+        <v>1152.704665327548</v>
       </c>
       <c r="P42" t="n">
-        <v>1528.751871994674</v>
+        <v>1415.669067825935</v>
       </c>
       <c r="Q42" t="n">
         <v>1528.751871994674</v>
       </c>
       <c r="R42" t="n">
-        <v>1528.751871994674</v>
+        <v>1452.165808284023</v>
       </c>
       <c r="S42" t="n">
-        <v>1528.751871994674</v>
+        <v>1452.165808284023</v>
       </c>
       <c r="T42" t="n">
-        <v>1528.751871994674</v>
+        <v>1238.885815343973</v>
       </c>
       <c r="U42" t="n">
-        <v>1528.751871994674</v>
+        <v>999.3245444096926</v>
       </c>
       <c r="V42" t="n">
-        <v>1528.751871994674</v>
+        <v>999.3245444096926</v>
       </c>
       <c r="W42" t="n">
-        <v>1259.353302724965</v>
+        <v>999.3245444096926</v>
       </c>
       <c r="X42" t="n">
-        <v>1259.353302724965</v>
+        <v>779.816550026389</v>
       </c>
       <c r="Y42" t="n">
-        <v>1033.712609660293</v>
+        <v>692.7430520409252</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1528.751871994674</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="C43" t="n">
-        <v>1528.751871994674</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="D43" t="n">
-        <v>1528.751871994674</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="E43" t="n">
-        <v>1528.751871994674</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="F43" t="n">
-        <v>1528.751871994674</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="G43" t="n">
-        <v>1359.150399756003</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="H43" t="n">
-        <v>1198.793528184061</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="I43" t="n">
-        <v>1104.292807713716</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="J43" t="n">
-        <v>1104.292807713716</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="K43" t="n">
-        <v>1129.410535973958</v>
+        <v>55.69276570013601</v>
       </c>
       <c r="L43" t="n">
-        <v>1214.639826324283</v>
+        <v>140.9220560504606</v>
       </c>
       <c r="M43" t="n">
-        <v>1313.098052619755</v>
+        <v>239.3802823459328</v>
       </c>
       <c r="N43" t="n">
-        <v>1417.23129861844</v>
+        <v>343.513528344618</v>
       </c>
       <c r="O43" t="n">
-        <v>1491.417559398226</v>
+        <v>417.699789124404</v>
       </c>
       <c r="P43" t="n">
-        <v>1528.751871994674</v>
+        <v>455.0341017208518</v>
       </c>
       <c r="Q43" t="n">
-        <v>1528.751871994674</v>
+        <v>455.0341017208518</v>
       </c>
       <c r="R43" t="n">
-        <v>1528.751871994674</v>
+        <v>455.0341017208518</v>
       </c>
       <c r="S43" t="n">
-        <v>1528.751871994674</v>
+        <v>455.0341017208518</v>
       </c>
       <c r="T43" t="n">
-        <v>1528.751871994674</v>
+        <v>322.1034980650268</v>
       </c>
       <c r="U43" t="n">
-        <v>1528.751871994674</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="V43" t="n">
-        <v>1528.751871994674</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="W43" t="n">
-        <v>1528.751871994674</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="X43" t="n">
-        <v>1528.751871994674</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="Y43" t="n">
-        <v>1528.751871994674</v>
+        <v>30.57503743989348</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1528.751871994674</v>
+        <v>759.5491883922318</v>
       </c>
       <c r="C44" t="n">
-        <v>1528.751871994674</v>
+        <v>405.8062617445765</v>
       </c>
       <c r="D44" t="n">
-        <v>1528.751871994674</v>
+        <v>405.8062617445765</v>
       </c>
       <c r="E44" t="n">
-        <v>1153.520647689991</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="F44" t="n">
-        <v>923.2080260759826</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="G44" t="n">
-        <v>537.1595735520751</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="H44" t="n">
-        <v>204.9743015926718</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="I44" t="n">
         <v>30.57503743989348</v>
@@ -7657,10 +7657,10 @@
         <v>435.9331287522842</v>
       </c>
       <c r="M44" t="n">
-        <v>582.945593941567</v>
+        <v>814.2992170709661</v>
       </c>
       <c r="N44" t="n">
-        <v>961.3116822602487</v>
+        <v>1192.665305389648</v>
       </c>
       <c r="O44" t="n">
         <v>1291.27952495012</v>
@@ -7672,28 +7672,28 @@
         <v>1528.751871994674</v>
       </c>
       <c r="R44" t="n">
-        <v>1528.751871994674</v>
+        <v>1447.087065062796</v>
       </c>
       <c r="S44" t="n">
-        <v>1528.751871994674</v>
+        <v>1447.087065062796</v>
       </c>
       <c r="T44" t="n">
-        <v>1528.751871994674</v>
+        <v>1447.087065062796</v>
       </c>
       <c r="U44" t="n">
-        <v>1528.751871994674</v>
+        <v>1447.087065062796</v>
       </c>
       <c r="V44" t="n">
-        <v>1528.751871994674</v>
+        <v>1122.966071518198</v>
       </c>
       <c r="W44" t="n">
-        <v>1528.751871994674</v>
+        <v>1122.966071518198</v>
       </c>
       <c r="X44" t="n">
-        <v>1528.751871994674</v>
+        <v>759.5491883922318</v>
       </c>
       <c r="Y44" t="n">
-        <v>1528.751871994674</v>
+        <v>759.5491883922318</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>30.57503743989348</v>
+        <v>616.651216305922</v>
       </c>
       <c r="C45" t="n">
-        <v>30.57503743989348</v>
+        <v>427.2389420388857</v>
       </c>
       <c r="D45" t="n">
-        <v>30.57503743989348</v>
+        <v>266.4588257999175</v>
       </c>
       <c r="E45" t="n">
-        <v>30.57503743989348</v>
+        <v>266.4588257999175</v>
       </c>
       <c r="F45" t="n">
-        <v>30.57503743989348</v>
+        <v>106.0311095171616</v>
       </c>
       <c r="G45" t="n">
-        <v>30.57503743989348</v>
+        <v>106.0311095171616</v>
       </c>
       <c r="H45" t="n">
-        <v>30.57503743989348</v>
+        <v>106.0311095171616</v>
       </c>
       <c r="I45" t="n">
         <v>30.57503743989348</v>
@@ -7730,22 +7730,22 @@
         <v>30.57503743989348</v>
       </c>
       <c r="K45" t="n">
-        <v>220.1928862165718</v>
+        <v>50.53314736826241</v>
       </c>
       <c r="L45" t="n">
-        <v>541.4440265273699</v>
+        <v>133.8827893599854</v>
       </c>
       <c r="M45" t="n">
-        <v>784.939794833625</v>
+        <v>512.2488776786672</v>
       </c>
       <c r="N45" t="n">
-        <v>1163.305883152307</v>
+        <v>890.6149659973489</v>
       </c>
       <c r="O45" t="n">
-        <v>1265.787469496287</v>
+        <v>1245.767107403737</v>
       </c>
       <c r="P45" t="n">
-        <v>1528.751871994674</v>
+        <v>1415.669067825935</v>
       </c>
       <c r="Q45" t="n">
         <v>1528.751871994674</v>
@@ -7754,25 +7754,25 @@
         <v>1452.165808284023</v>
       </c>
       <c r="S45" t="n">
-        <v>1276.438526594516</v>
+        <v>1452.165808284023</v>
       </c>
       <c r="T45" t="n">
-        <v>1063.158533654466</v>
+        <v>1238.885815343973</v>
       </c>
       <c r="U45" t="n">
-        <v>823.5972627201854</v>
+        <v>999.3245444096926</v>
       </c>
       <c r="V45" t="n">
-        <v>580.5175446238195</v>
+        <v>756.2448263133267</v>
       </c>
       <c r="W45" t="n">
-        <v>311.1189753541108</v>
+        <v>616.651216305922</v>
       </c>
       <c r="X45" t="n">
-        <v>91.61098097080719</v>
+        <v>616.651216305922</v>
       </c>
       <c r="Y45" t="n">
-        <v>30.57503743989348</v>
+        <v>616.651216305922</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>455.0341017208518</v>
+        <v>360.5333812505058</v>
       </c>
       <c r="C46" t="n">
-        <v>455.0341017208518</v>
+        <v>360.5333812505058</v>
       </c>
       <c r="D46" t="n">
-        <v>455.0341017208518</v>
+        <v>360.5333812505058</v>
       </c>
       <c r="E46" t="n">
-        <v>455.0341017208518</v>
+        <v>360.5333812505058</v>
       </c>
       <c r="F46" t="n">
-        <v>455.0341017208518</v>
+        <v>360.5333812505058</v>
       </c>
       <c r="G46" t="n">
-        <v>397.9483444767019</v>
+        <v>190.9319090118346</v>
       </c>
       <c r="H46" t="n">
-        <v>237.5914729047607</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="I46" t="n">
-        <v>95.23227646468071</v>
+        <v>30.57503743989348</v>
       </c>
       <c r="J46" t="n">
         <v>30.57503743989348</v>
@@ -7839,19 +7839,19 @@
         <v>455.0341017208518</v>
       </c>
       <c r="U46" t="n">
-        <v>455.0341017208518</v>
+        <v>360.5333812505058</v>
       </c>
       <c r="V46" t="n">
-        <v>455.0341017208518</v>
+        <v>360.5333812505058</v>
       </c>
       <c r="W46" t="n">
-        <v>455.0341017208518</v>
+        <v>360.5333812505058</v>
       </c>
       <c r="X46" t="n">
-        <v>455.0341017208518</v>
+        <v>360.5333812505058</v>
       </c>
       <c r="Y46" t="n">
-        <v>455.0341017208518</v>
+        <v>360.5333812505058</v>
       </c>
     </row>
   </sheetData>
@@ -8698,16 +8698,16 @@
         <v>75.16855874203631</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>29.79193473146816</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>44.97097187085339</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>6.831195472934823</v>
+        <v>22.01023261232003</v>
       </c>
       <c r="Q11" t="n">
         <v>35.82523367209865</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>109.5746066315038</v>
+        <v>35.87305201399531</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>51.8021673437882</v>
       </c>
       <c r="L14" t="n">
-        <v>23.47723673684784</v>
+        <v>75.16855874203634</v>
       </c>
       <c r="M14" t="n">
-        <v>29.79193473146819</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>109.5746066315038</v>
+        <v>35.87305201399531</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9175,16 +9175,16 @@
         <v>41.36789521625238</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>34.03623383422271</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>57.73740261605774</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>35.82523367209865</v>
+        <v>133.2279570714421</v>
       </c>
       <c r="R17" t="n">
         <v>42.58424007769262</v>
@@ -9245,10 +9245,10 @@
         <v>44.55541401193173</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>34.26016587920981</v>
       </c>
       <c r="L18" t="n">
-        <v>34.26016587920982</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>109.5746066315038</v>
+        <v>35.87305201399531</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>134.3274171306543</v>
       </c>
       <c r="L20" t="n">
-        <v>86.74451922682053</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>12.36077860548951</v>
+        <v>38.47943531916431</v>
       </c>
       <c r="Q20" t="n">
         <v>35.82523367209865</v>
@@ -9482,7 +9482,7 @@
         <v>44.55541401193173</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>34.26016587920981</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>34.26016587920978</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>21.90502773693211</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315037</v>
       </c>
       <c r="K23" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L23" t="n">
-        <v>270.6444670286917</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M23" t="n">
         <v>291.2847697033555</v>
@@ -9725,7 +9725,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>301.77688131</v>
+        <v>212.3149352829604</v>
       </c>
       <c r="N24" t="n">
         <v>310.6138585746227</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>46.66813642579061</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9883,7 +9883,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M26" t="n">
-        <v>291.2847697033553</v>
+        <v>291.2847697033555</v>
       </c>
       <c r="N26" t="n">
         <v>283.4008070189657</v>
@@ -9892,7 +9892,7 @@
         <v>246.758517458259</v>
       </c>
       <c r="P26" t="n">
-        <v>208.5255628951208</v>
+        <v>208.5255628951205</v>
       </c>
       <c r="Q26" t="n">
         <v>137.5801139476182</v>
@@ -9965,7 +9965,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N27" t="n">
-        <v>221.151912547583</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O27" t="n">
         <v>255.2227828913207</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>46.66813642579061</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10132,7 +10132,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q29" t="n">
-        <v>137.5801139476181</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R29" t="n">
         <v>42.58424007769262</v>
@@ -10199,7 +10199,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M30" t="n">
-        <v>249.4665121716135</v>
+        <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
         <v>310.6138585746227</v>
@@ -10208,7 +10208,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>206.3638740786793</v>
+        <v>154.053504940293</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
@@ -10436,7 +10436,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M33" t="n">
-        <v>212.3149352829604</v>
+        <v>301.77688131</v>
       </c>
       <c r="N33" t="n">
         <v>310.6138585746227</v>
@@ -10448,7 +10448,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>46.66813642579061</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10588,25 +10588,25 @@
         <v>109.5746066315038</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
         <v>270.6444670286918</v>
       </c>
       <c r="M35" t="n">
-        <v>291.2847697033555</v>
+        <v>53.9460231780989</v>
       </c>
       <c r="N35" t="n">
-        <v>283.4008070189657</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>246.3456344307918</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>208.5255628951208</v>
       </c>
       <c r="Q35" t="n">
-        <v>35.82523367209865</v>
+        <v>137.5801139476182</v>
       </c>
       <c r="R35" t="n">
         <v>42.58424007769262</v>
@@ -10664,7 +10664,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J36" t="n">
-        <v>81.70699090058493</v>
+        <v>44.55541401193173</v>
       </c>
       <c r="K36" t="n">
         <v>171.373473584151</v>
@@ -10673,7 +10673,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M36" t="n">
-        <v>2.189240313360756</v>
+        <v>39.34081720201391</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10834,13 +10834,13 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N38" t="n">
-        <v>283.4008070189657</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>246.758517458259</v>
       </c>
       <c r="P38" t="n">
-        <v>144.5907541552721</v>
+        <v>181.2330437159789</v>
       </c>
       <c r="Q38" t="n">
         <v>137.5801139476182</v>
@@ -10910,7 +10910,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M39" t="n">
-        <v>116.4142950292589</v>
+        <v>2.189240313360756</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.90502773693211</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>35.87305201399531</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
-        <v>210.0462273461148</v>
+        <v>13.06798904472457</v>
       </c>
       <c r="L41" t="n">
         <v>270.6444670286918</v>
       </c>
       <c r="M41" t="n">
-        <v>81.8114514316139</v>
+        <v>280.4665971156518</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>273.1349357336222</v>
       </c>
       <c r="O41" t="n">
-        <v>246.758517458259</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>208.5255628951208</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.5801139476182</v>
+        <v>35.82523367209865</v>
       </c>
       <c r="R41" t="n">
         <v>42.58424007769262</v>
@@ -11138,7 +11138,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>44.55541401193173</v>
       </c>
       <c r="K42" t="n">
         <v>171.373473584151</v>
@@ -11147,19 +11147,19 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M42" t="n">
-        <v>86.7022496571864</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>239.0987018993995</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>9.628771829941371</v>
       </c>
       <c r="P42" t="n">
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.90502773693211</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11305,13 +11305,13 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
-        <v>46.77606870211758</v>
+        <v>280.4665971156519</v>
       </c>
       <c r="N44" t="n">
         <v>273.1349357336222</v>
       </c>
       <c r="O44" t="n">
-        <v>246.758517458259</v>
+        <v>13.06798904472453</v>
       </c>
       <c r="P44" t="n">
         <v>208.5255628951208</v>
@@ -11378,25 +11378,25 @@
         <v>44.55541401193173</v>
       </c>
       <c r="K45" t="n">
-        <v>171.373473584151</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>240.3045437566416</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>123.8538265458396</v>
+        <v>260.0864730230383</v>
       </c>
       <c r="N45" t="n">
         <v>239.0987018993995</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>255.2227828913207</v>
       </c>
       <c r="P45" t="n">
-        <v>206.3638740786793</v>
+        <v>112.3614073350544</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.90502773693211</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23269,7 +23269,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>287.3623300547754</v>
+        <v>271.6859440255288</v>
       </c>
       <c r="G11" t="n">
         <v>285.551843608997</v>
@@ -23278,7 +23278,7 @@
         <v>197.3501136253246</v>
       </c>
       <c r="I11" t="n">
-        <v>41.14196589676581</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>187.1142161021862</v>
       </c>
       <c r="T11" t="n">
-        <v>214.7044699816169</v>
+        <v>98.86755039637883</v>
       </c>
       <c r="U11" t="n">
         <v>250.0086995935164</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>136.7337778859721</v>
+        <v>45.23718878318101</v>
       </c>
       <c r="C12" t="n">
-        <v>56.0048459098812</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -23351,10 +23351,10 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>147.7959531409774</v>
+        <v>92.83948087822189</v>
       </c>
       <c r="H12" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>74.70151135649544</v>
@@ -23387,7 +23387,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>42.45670325812748</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T12" t="n">
         <v>79.63388739616414</v>
@@ -23424,10 +23424,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>10.16283559774027</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>7.413576603961928</v>
       </c>
       <c r="G13" t="n">
         <v>167.9054575162844</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>36.15629268521059</v>
+        <v>71.10173393142881</v>
       </c>
       <c r="S13" t="n">
-        <v>90.06452532775029</v>
+        <v>221.577830942235</v>
       </c>
       <c r="T13" t="n">
-        <v>123.7955196901658</v>
+        <v>220.3633840584323</v>
       </c>
       <c r="U13" t="n">
         <v>288.6131760188819</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>242.5739347633486</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C14" t="n">
-        <v>218.6921917666941</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>206.2588540277426</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>371.4789120616362</v>
+        <v>239.9656064471514</v>
       </c>
       <c r="F14" t="n">
-        <v>287.3623300547754</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
         <v>417.0651492234818</v>
@@ -23551,16 +23551,16 @@
         <v>214.7044699816169</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0086995935164</v>
+        <v>118.4953939790317</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>206.3831582112822</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7827142947061</v>
+        <v>243.9457947094681</v>
       </c>
       <c r="Y14" t="n">
         <v>382.2855674184499</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>42.45670325812748</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T15" t="n">
         <v>211.1471930106489</v>
@@ -23633,16 +23633,16 @@
         <v>105.6523526104533</v>
       </c>
       <c r="V15" t="n">
-        <v>124.8120013301642</v>
+        <v>200.6322044037086</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>135.1912779625269</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>85.79960882498588</v>
       </c>
       <c r="Y15" t="n">
-        <v>91.87098051954089</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23664,7 +23664,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>42.35901785018012</v>
       </c>
       <c r="G16" t="n">
         <v>167.9054575162844</v>
@@ -23706,16 +23706,16 @@
         <v>90.06452532775029</v>
       </c>
       <c r="T16" t="n">
-        <v>123.7955196901658</v>
+        <v>220.3633840584323</v>
       </c>
       <c r="U16" t="n">
-        <v>157.0998704043972</v>
+        <v>288.6131760188819</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W16" t="n">
-        <v>290.3107070893353</v>
+        <v>158.7974014748506</v>
       </c>
       <c r="X16" t="n">
         <v>221.9194554082425</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.9979742785644</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>207.1162312819099</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>194.6828935429583</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>245.4458864814002</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.0651492234818</v>
+        <v>273.9758831242128</v>
       </c>
       <c r="H17" t="n">
         <v>328.8634192398093</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>187.1142161021862</v>
+        <v>44.02495000291728</v>
       </c>
       <c r="T17" t="n">
         <v>214.7044699816169</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0086995935164</v>
+        <v>207.4825169402149</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>177.7905175098831</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>33.66122829839679</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -23819,13 +23819,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>28.73830574053073</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>147.7959531409774</v>
+        <v>21.76292756074143</v>
       </c>
       <c r="H18" t="n">
         <v>116.5735498634229</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S18" t="n">
         <v>173.9700088726122</v>
@@ -23867,16 +23867,16 @@
         <v>211.1471930106489</v>
       </c>
       <c r="U18" t="n">
-        <v>186.9528357182465</v>
+        <v>94.07639212566906</v>
       </c>
       <c r="V18" t="n">
-        <v>97.5596548161333</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>123.6153174777426</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>74.22364834020166</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -23940,19 +23940,19 @@
         <v>167.6695982996953</v>
       </c>
       <c r="S19" t="n">
-        <v>221.577830942235</v>
+        <v>78.48856484296607</v>
       </c>
       <c r="T19" t="n">
-        <v>220.3633840584323</v>
+        <v>77.27411795916339</v>
       </c>
       <c r="U19" t="n">
-        <v>145.523909919613</v>
+        <v>154.577234579271</v>
       </c>
       <c r="V19" t="n">
-        <v>111.073073744839</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>147.2214409900664</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>230.9979742785644</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>207.1162312819099</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>245.4458864814002</v>
       </c>
       <c r="F20" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.0651492234818</v>
+        <v>273.9758831242128</v>
       </c>
       <c r="H20" t="n">
         <v>328.8634192398093</v>
       </c>
       <c r="I20" t="n">
-        <v>172.6552715112505</v>
+        <v>29.56600541198159</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>233.7496887144702</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
         <v>239.1963013191809</v>
@@ -24062,13 +24062,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>145.7689257549352</v>
+        <v>147.7959531409774</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S21" t="n">
-        <v>173.9700088726122</v>
+        <v>30.88074277334326</v>
       </c>
       <c r="T21" t="n">
         <v>68.05792691137992</v>
       </c>
       <c r="U21" t="n">
-        <v>237.165658224938</v>
+        <v>94.07639212566906</v>
       </c>
       <c r="V21" t="n">
-        <v>97.5596548161333</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>140.6715579967756</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -24129,19 +24129,19 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C22" t="n">
-        <v>23.36791487270341</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
-        <v>11.14670881109981</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E22" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F22" t="n">
-        <v>138.9268822184467</v>
+        <v>4.890940778835756</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9054575162844</v>
+        <v>24.81619141701549</v>
       </c>
       <c r="H22" t="n">
         <v>158.7533028562218</v>
@@ -24189,13 +24189,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>147.2214409900664</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y22" t="n">
-        <v>74.05200671489948</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>69.95142195908448</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>233.1959983190618</v>
       </c>
       <c r="F23" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.0651492234818</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>328.8634192398093</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>83.50684292693452</v>
       </c>
       <c r="S23" t="n">
         <v>187.1142161021862</v>
       </c>
       <c r="T23" t="n">
-        <v>214.7044699816169</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,7 +24299,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>50.23870765142448</v>
       </c>
       <c r="H24" t="n">
         <v>116.5735498634229</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>173.9700088726122</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>142.4426768740674</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -24372,19 +24372,19 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E25" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.9054575162844</v>
+        <v>28.29400730880735</v>
       </c>
       <c r="H25" t="n">
-        <v>101.0522646359873</v>
+        <v>158.7533028562218</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>140.9356044756792</v>
       </c>
       <c r="J25" t="n">
         <v>64.01066663453935</v>
@@ -24414,7 +24414,7 @@
         <v>167.6695982996953</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>221.577830942235</v>
       </c>
       <c r="T25" t="n">
         <v>220.3633840584323</v>
@@ -24451,19 +24451,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>306.5934972662361</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>249.1465839684783</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>328.8634192398093</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>214.7044699816169</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>359.7827142947061</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,13 +24530,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>41.51238554994589</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>147.7959531409774</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>116.5735498634229</v>
@@ -24584,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>21.07525766909325</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>10.07484359295796</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
@@ -24654,16 +24654,16 @@
         <v>221.577830942235</v>
       </c>
       <c r="T28" t="n">
-        <v>220.3633840584323</v>
+        <v>90.45961750961891</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>288.6131760188819</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>221.9194554082425</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>403.1992496400135</v>
@@ -24697,10 +24697,10 @@
         <v>417.0651492234818</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>328.8634192398093</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>83.50684292693452</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24736,16 +24736,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0086995935164</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>207.3387740841367</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>139.7569437210348</v>
       </c>
       <c r="Y29" t="n">
         <v>382.2855674184499</v>
@@ -24773,13 +24773,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>147.7959531409774</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T30" t="n">
         <v>211.1471930106489</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>148.6083983028892</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>175.1731347509748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24846,7 +24846,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
-        <v>2.445049673421352</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
         <v>138.9268822184467</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>60.61999804091276</v>
       </c>
       <c r="R31" t="n">
         <v>167.6695982996953</v>
@@ -24891,16 +24891,16 @@
         <v>221.577830942235</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.3633840584323</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6131760188819</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>290.3107070893353</v>
+        <v>158.7094094700685</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
@@ -24925,16 +24925,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>230.9750772412696</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>328.8634192398093</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>187.1142161021862</v>
       </c>
       <c r="T32" t="n">
-        <v>214.7044699816169</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0086995935164</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>292.6811741159515</v>
       </c>
       <c r="Y32" t="n">
         <v>382.2855674184499</v>
@@ -24998,22 +24998,22 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>46.62803543890584</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.7959531409774</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>116.5735498634229</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>75.82020307354448</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,10 +25052,10 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>89.13988251684066</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -25125,16 +25125,16 @@
         <v>167.6695982996953</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>221.577830942235</v>
       </c>
       <c r="T34" t="n">
-        <v>220.3633840584323</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6131760188819</v>
+        <v>88.7620864391655</v>
       </c>
       <c r="V34" t="n">
-        <v>46.47237248853617</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
         <v>290.3107070893353</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>31.90950757687597</v>
+        <v>23.30122074002924</v>
       </c>
       <c r="H35" t="n">
         <v>328.8634192398093</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>83.50684292693452</v>
       </c>
       <c r="S35" t="n">
         <v>187.1142161021862</v>
@@ -25210,10 +25210,10 @@
         <v>214.7044699816169</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0086995935164</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>192.9061658238217</v>
       </c>
       <c r="W35" t="n">
         <v>337.8964638257669</v>
@@ -25222,7 +25222,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25238,16 +25238,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>147.7959531409774</v>
+        <v>52.39789280267206</v>
       </c>
       <c r="H36" t="n">
         <v>116.5735498634229</v>
@@ -25280,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>173.9700088726122</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>44.99499704058022</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.165658224938</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>166.4571809719723</v>
@@ -25320,22 +25320,22 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E37" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>111.390557844576</v>
+        <v>167.9054575162844</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>158.7533028562218</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>140.9356044756792</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>64.01066663453935</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>220.3633840584323</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6131760188819</v>
+        <v>187.6917642579262</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D38" t="n">
-        <v>18.33570142340938</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>23.30122074002924</v>
+        <v>155.1420066270059</v>
       </c>
       <c r="H38" t="n">
         <v>328.8634192398093</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>83.50684292693452</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>187.1142161021862</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>214.7044699816169</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25472,19 +25472,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>46.87053103999956</v>
       </c>
       <c r="G39" t="n">
-        <v>147.7959531409774</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>116.5735498634229</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>173.9700088726122</v>
       </c>
       <c r="T39" t="n">
-        <v>44.99499704058022</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.165658224938</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25614,10 +25614,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X40" t="n">
-        <v>221.9194554082425</v>
+        <v>18.84625458426217</v>
       </c>
       <c r="Y40" t="n">
-        <v>141.0009008129601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>57.08679624974093</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
@@ -25639,7 +25639,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>21.01128164134502</v>
       </c>
       <c r="G41" t="n">
         <v>417.0651492234818</v>
@@ -25678,10 +25678,10 @@
         <v>83.50684292693452</v>
       </c>
       <c r="S41" t="n">
-        <v>187.1142161021862</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>214.7044699816169</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.0086995935164</v>
@@ -25690,10 +25690,10 @@
         <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>320.9648176689212</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
         <v>0.09759941978143161</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>23.30629542337317</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>116.5735498634229</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>74.70151135649544</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>75.82020307354448</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>173.9700088726122</v>
       </c>
       <c r="T42" t="n">
-        <v>211.1471930106489</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.165658224938</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>137.1815231284165</v>
       </c>
     </row>
     <row r="43">
@@ -25800,13 +25800,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.9054575162844</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>158.7533028562218</v>
       </c>
       <c r="I43" t="n">
-        <v>47.37989121003683</v>
+        <v>140.9356044756792</v>
       </c>
       <c r="J43" t="n">
         <v>64.01066663453935</v>
@@ -25839,10 +25839,10 @@
         <v>221.577830942235</v>
       </c>
       <c r="T43" t="n">
-        <v>220.3633840584323</v>
+        <v>88.76208643916553</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6131760188819</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25867,7 +25867,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>337.7721596422273</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>175.1897542421455</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>34.87718122481334</v>
+        <v>417.0651492234818</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>328.8634192398093</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>172.6552715112505</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>83.50684292693452</v>
+        <v>2.658684064375265</v>
       </c>
       <c r="S44" t="n">
         <v>187.1142161021862</v>
@@ -25924,13 +25924,13 @@
         <v>250.0086995935164</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>382.2855674184499</v>
@@ -25946,16 +25946,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>147.7959531409774</v>
@@ -25964,7 +25964,7 @@
         <v>116.5735498634229</v>
       </c>
       <c r="I45" t="n">
-        <v>74.70151135649544</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>173.9700088726122</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26006,13 +26006,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>128.506909669681</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>162.9587020384211</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -26037,16 +26037,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>111.390557844576</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>140.9356044756792</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>64.01066663453935</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>220.3633840584323</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6131760188819</v>
+        <v>195.0574627532394</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>399080.2274581412</v>
+        <v>399080.227458141</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>649172.1046648675</v>
+        <v>649172.1046648677</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649172.1046648676</v>
+        <v>649172.1046648677</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>649172.1046648677</v>
+        <v>649172.1046648676</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>555538.9551068376</v>
+        <v>555538.9551068377</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639400.6965029333</v>
+        <v>639400.6965029332</v>
       </c>
       <c r="C2" t="n">
-        <v>639400.6965029335</v>
+        <v>639400.6965029332</v>
       </c>
       <c r="D2" t="n">
         <v>639400.6965029332</v>
       </c>
       <c r="E2" t="n">
-        <v>267295.7895977899</v>
+        <v>267295.7895977898</v>
       </c>
       <c r="F2" t="n">
         <v>267295.7895977898</v>
@@ -26334,28 +26334,28 @@
         <v>271269.3162876849</v>
       </c>
       <c r="I2" t="n">
-        <v>402457.9198938913</v>
+        <v>402457.9198938914</v>
       </c>
       <c r="J2" t="n">
-        <v>402457.9198938913</v>
+        <v>402457.9198938914</v>
       </c>
       <c r="K2" t="n">
         <v>402457.9198938914</v>
       </c>
       <c r="L2" t="n">
-        <v>402457.9198938915</v>
+        <v>402457.9198938914</v>
       </c>
       <c r="M2" t="n">
         <v>357315.0887117735</v>
       </c>
       <c r="N2" t="n">
-        <v>357315.0887117735</v>
+        <v>357315.0887117737</v>
       </c>
       <c r="O2" t="n">
         <v>353341.5620218787</v>
       </c>
       <c r="P2" t="n">
-        <v>353341.5620218787</v>
+        <v>353341.5620218785</v>
       </c>
     </row>
     <row r="3">
@@ -26435,7 +26435,7 @@
         <v>15680.65713797116</v>
       </c>
       <c r="H4" t="n">
-        <v>15680.65713797115</v>
+        <v>15680.65713797116</v>
       </c>
       <c r="I4" t="n">
         <v>80575.92703313543</v>
@@ -26444,13 +26444,13 @@
         <v>80575.92703313543</v>
       </c>
       <c r="K4" t="n">
-        <v>80575.92703313542</v>
+        <v>80575.92703313543</v>
       </c>
       <c r="L4" t="n">
         <v>80575.92703313543</v>
       </c>
       <c r="M4" t="n">
-        <v>58245.05275849855</v>
+        <v>58245.05275849854</v>
       </c>
       <c r="N4" t="n">
         <v>58245.05275849854</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149096.445427138</v>
+        <v>149051.781585086</v>
       </c>
       <c r="C6" t="n">
-        <v>149096.4454271382</v>
+        <v>149051.781585086</v>
       </c>
       <c r="D6" t="n">
-        <v>149096.4454271379</v>
+        <v>149051.781585086</v>
       </c>
       <c r="E6" t="n">
-        <v>-241288.2291076776</v>
+        <v>-254164.0966361138</v>
       </c>
       <c r="F6" t="n">
-        <v>233592.7261773112</v>
+        <v>220716.8586488751</v>
       </c>
       <c r="G6" t="n">
-        <v>231895.8339869864</v>
+        <v>219156.9846202708</v>
       </c>
       <c r="H6" t="n">
-        <v>235068.6311164585</v>
+        <v>222329.7817497428</v>
       </c>
       <c r="I6" t="n">
-        <v>176493.1297350077</v>
+        <v>168278.0253202303</v>
       </c>
       <c r="J6" t="n">
-        <v>278124.9363731816</v>
+        <v>269909.8319584042</v>
       </c>
       <c r="K6" t="n">
-        <v>278124.9363731816</v>
+        <v>269909.8319584042</v>
       </c>
       <c r="L6" t="n">
-        <v>278124.9363731818</v>
+        <v>269909.8319584042</v>
       </c>
       <c r="M6" t="n">
-        <v>263308.9884470613</v>
+        <v>253537.2346811764</v>
       </c>
       <c r="N6" t="n">
-        <v>263308.9884470614</v>
+        <v>253537.2346811766</v>
       </c>
       <c r="O6" t="n">
-        <v>262004.8707615086</v>
+        <v>252096.098833903</v>
       </c>
       <c r="P6" t="n">
-        <v>262004.8707615085</v>
+        <v>252096.0988339029</v>
       </c>
     </row>
   </sheetData>
@@ -35418,16 +35418,16 @@
         <v>131.5133056144847</v>
       </c>
       <c r="M11" t="n">
-        <v>101.7213708830166</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="N11" t="n">
         <v>109.0530322650462</v>
       </c>
       <c r="O11" t="n">
-        <v>131.5133056144847</v>
+        <v>86.54233374363133</v>
       </c>
       <c r="P11" t="n">
-        <v>38.17669019857549</v>
+        <v>53.35572733796069</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.70155461750851</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>8.761848968614629</v>
+        <v>60.56401631240283</v>
       </c>
       <c r="L14" t="n">
-        <v>79.82198360929625</v>
+        <v>131.5133056144847</v>
       </c>
       <c r="M14" t="n">
-        <v>131.5133056144847</v>
+        <v>101.7213708830166</v>
       </c>
       <c r="N14" t="n">
         <v>109.0530322650462</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.70155461750851</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>8.761848968614629</v>
@@ -35895,16 +35895,16 @@
         <v>143.0892660992689</v>
       </c>
       <c r="N17" t="n">
-        <v>109.0530322650462</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="O17" t="n">
         <v>86.54233374363133</v>
       </c>
       <c r="P17" t="n">
-        <v>89.0828973416984</v>
+        <v>31.34549472564066</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>97.4027233993435</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>20.15970699835245</v>
+        <v>54.41987287756226</v>
       </c>
       <c r="L18" t="n">
-        <v>118.4517234466068</v>
+        <v>84.19155756739696</v>
       </c>
       <c r="M18" t="n">
         <v>122.1014949756302</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.70155461750851</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>8.761848968614629</v>
+        <v>143.0892660992689</v>
       </c>
       <c r="L20" t="n">
-        <v>143.0892660992689</v>
+        <v>56.34474687244841</v>
       </c>
       <c r="M20" t="n">
         <v>101.7213708830166</v>
@@ -36138,7 +36138,7 @@
         <v>86.54233374363133</v>
       </c>
       <c r="P20" t="n">
-        <v>43.70627333113017</v>
+        <v>69.82493004480497</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>20.15970699835245</v>
+        <v>54.41987287756226</v>
       </c>
       <c r="L21" t="n">
         <v>84.19155756739696</v>
@@ -36217,7 +36217,7 @@
         <v>103.5167538828088</v>
       </c>
       <c r="P21" t="n">
-        <v>93.51690038475903</v>
+        <v>59.25673450554925</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.70155461750851</v>
+        <v>73.70155461750841</v>
       </c>
       <c r="K23" t="n">
         <v>218.8080763147294</v>
       </c>
       <c r="L23" t="n">
-        <v>326.9892139011401</v>
+        <v>326.9892139011403</v>
       </c>
       <c r="M23" t="n">
         <v>393.0061405863721</v>
@@ -36445,7 +36445,7 @@
         <v>324.4961013240385</v>
       </c>
       <c r="M24" t="n">
-        <v>423.8783762856302</v>
+        <v>334.4164302585906</v>
       </c>
       <c r="N24" t="n">
         <v>453.7031246738916</v>
@@ -36457,7 +36457,7 @@
         <v>265.6206085842285</v>
       </c>
       <c r="Q24" t="n">
-        <v>24.76310868885849</v>
+        <v>114.2250547158981</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>326.9892139011403</v>
       </c>
       <c r="M26" t="n">
-        <v>393.0061405863719</v>
+        <v>393.0061405863721</v>
       </c>
       <c r="N26" t="n">
         <v>392.453839284012</v>
@@ -36612,7 +36612,7 @@
         <v>333.3008512018903</v>
       </c>
       <c r="P26" t="n">
-        <v>239.8710576207614</v>
+        <v>239.8710576207611</v>
       </c>
       <c r="Q26" t="n">
         <v>101.7548802755196</v>
@@ -36685,7 +36685,7 @@
         <v>423.8783762856302</v>
       </c>
       <c r="N27" t="n">
-        <v>364.2411786468519</v>
+        <v>453.7031246738916</v>
       </c>
       <c r="O27" t="n">
         <v>358.7395367741295</v>
@@ -36694,7 +36694,7 @@
         <v>265.6206085842285</v>
       </c>
       <c r="Q27" t="n">
-        <v>114.2250547158981</v>
+        <v>24.76310868885849</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>239.8710576207614</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.7548802755195</v>
+        <v>101.7548802755196</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>324.4961013240385</v>
       </c>
       <c r="M30" t="n">
-        <v>371.5680071472437</v>
+        <v>423.8783762856302</v>
       </c>
       <c r="N30" t="n">
         <v>453.7031246738916</v>
@@ -36928,7 +36928,7 @@
         <v>358.7395367741295</v>
       </c>
       <c r="P30" t="n">
-        <v>265.6206085842285</v>
+        <v>213.3102394458423</v>
       </c>
       <c r="Q30" t="n">
         <v>114.2250547158981</v>
@@ -37156,7 +37156,7 @@
         <v>324.4961013240385</v>
       </c>
       <c r="M33" t="n">
-        <v>334.4164302585906</v>
+        <v>423.8783762856302</v>
       </c>
       <c r="N33" t="n">
         <v>453.7031246738916</v>
@@ -37168,7 +37168,7 @@
         <v>265.6206085842285</v>
       </c>
       <c r="Q33" t="n">
-        <v>114.2250547158981</v>
+        <v>24.76310868885849</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>73.70155461750851</v>
       </c>
       <c r="K35" t="n">
-        <v>8.761848968614629</v>
+        <v>218.8080763147294</v>
       </c>
       <c r="L35" t="n">
         <v>326.9892139011403</v>
       </c>
       <c r="M35" t="n">
-        <v>393.0061405863721</v>
+        <v>155.6673940611155</v>
       </c>
       <c r="N35" t="n">
-        <v>392.453839284012</v>
+        <v>109.0530322650462</v>
       </c>
       <c r="O35" t="n">
-        <v>332.8879681744232</v>
+        <v>333.3008512018903</v>
       </c>
       <c r="P35" t="n">
-        <v>31.34549472564066</v>
+        <v>239.8710576207614</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>101.7548802755196</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>37.1515768886532</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>191.5331805825034</v>
@@ -37393,7 +37393,7 @@
         <v>324.4961013240385</v>
       </c>
       <c r="M36" t="n">
-        <v>124.290735288991</v>
+        <v>161.4423121776441</v>
       </c>
       <c r="N36" t="n">
         <v>143.0892660992689</v>
@@ -37554,13 +37554,13 @@
         <v>393.0061405863721</v>
       </c>
       <c r="N38" t="n">
-        <v>392.453839284012</v>
+        <v>109.0530322650462</v>
       </c>
       <c r="O38" t="n">
-        <v>86.54233374363133</v>
+        <v>333.3008512018903</v>
       </c>
       <c r="P38" t="n">
-        <v>175.9362488809127</v>
+        <v>212.5785384416196</v>
       </c>
       <c r="Q38" t="n">
         <v>101.7548802755196</v>
@@ -37630,7 +37630,7 @@
         <v>324.4961013240385</v>
       </c>
       <c r="M39" t="n">
-        <v>238.5157900048891</v>
+        <v>124.290735288991</v>
       </c>
       <c r="N39" t="n">
         <v>143.0892660992689</v>
@@ -37642,7 +37642,7 @@
         <v>265.6206085842285</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>114.2250547158981</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>73.70155461750851</v>
       </c>
       <c r="K41" t="n">
-        <v>218.8080763147294</v>
+        <v>21.8298380133392</v>
       </c>
       <c r="L41" t="n">
         <v>326.9892139011403</v>
       </c>
       <c r="M41" t="n">
-        <v>183.5328223146305</v>
+        <v>382.1879679986685</v>
       </c>
       <c r="N41" t="n">
-        <v>109.0530322650462</v>
+        <v>382.1879679986685</v>
       </c>
       <c r="O41" t="n">
-        <v>333.3008512018903</v>
+        <v>86.54233374363133</v>
       </c>
       <c r="P41" t="n">
         <v>239.8710576207614</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.7548802755196</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>37.1515768886532</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>191.5331805825034</v>
@@ -37867,19 +37867,19 @@
         <v>324.4961013240385</v>
       </c>
       <c r="M42" t="n">
-        <v>208.8037446328166</v>
+        <v>122.1014949756302</v>
       </c>
       <c r="N42" t="n">
         <v>382.1879679986685</v>
       </c>
       <c r="O42" t="n">
-        <v>103.5167538828088</v>
+        <v>113.1455257127502</v>
       </c>
       <c r="P42" t="n">
         <v>265.6206085842285</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>114.2250547158981</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>326.9892139011403</v>
       </c>
       <c r="M44" t="n">
-        <v>148.4974395851341</v>
+        <v>382.1879679986685</v>
       </c>
       <c r="N44" t="n">
         <v>382.1879679986685</v>
       </c>
       <c r="O44" t="n">
-        <v>333.3008512018903</v>
+        <v>99.61032278835586</v>
       </c>
       <c r="P44" t="n">
         <v>239.8710576207614</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>191.5331805825034</v>
+        <v>20.15970699835245</v>
       </c>
       <c r="L45" t="n">
-        <v>324.4961013240385</v>
+        <v>84.19155756739696</v>
       </c>
       <c r="M45" t="n">
-        <v>245.9553215214698</v>
+        <v>382.1879679986685</v>
       </c>
       <c r="N45" t="n">
         <v>382.1879679986685</v>
       </c>
       <c r="O45" t="n">
-        <v>103.5167538828088</v>
+        <v>358.7395367741295</v>
       </c>
       <c r="P45" t="n">
-        <v>265.6206085842285</v>
+        <v>171.6181418406036</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>114.2250547158981</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
